--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\HGit\APaD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Quick</t>
   </si>
@@ -39,6 +39,36 @@
   </si>
   <si>
     <t>Selection Formula</t>
+  </si>
+  <si>
+    <t>Quick2</t>
+  </si>
+  <si>
+    <t>Quick3</t>
+  </si>
+  <si>
+    <t>Quick4</t>
+  </si>
+  <si>
+    <t>QuickAvg</t>
+  </si>
+  <si>
+    <t>Time/Len</t>
+  </si>
+  <si>
+    <t>Selection2</t>
+  </si>
+  <si>
+    <t>Selection4</t>
+  </si>
+  <si>
+    <t>Selection3</t>
+  </si>
+  <si>
+    <t>SelectionAverage</t>
+  </si>
+  <si>
+    <t>GRAPHS</t>
   </si>
 </sst>
 </file>
@@ -74,8 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,15 +211,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1E-3</c:v>
+                  <c:v>3.3333333333333332E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>1.6666666666666668E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1E-3</c:v>
@@ -197,10 +228,10 @@
                   <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>2.6666666666666666E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>3.6666666666666666E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2E-3</c:v>
@@ -209,10 +240,10 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>3.3333333333333335E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>3.0000000000000005E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -229,7 +260,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -291,7 +322,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:f>Sheet1!$J$2:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -673,7 +704,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -789,7 +820,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$29</c:f>
+              <c:f>Sheet1!$J$2:$J$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -892,7 +923,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$1</c:f>
+              <c:f>Sheet1!$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1008,93 +1039,93 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$2:$T$29</c:f>
+              <c:f>Sheet1!$Z$2:$Z$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>7.6798604441822239E-7</c:v>
+                  <c:v>7.9447524806366202E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0719441776728896E-6</c:v>
+                  <c:v>3.1779009922546481E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9118743997640015E-6</c:v>
+                  <c:v>7.150277232572958E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2287776710691558E-5</c:v>
+                  <c:v>1.2711603969018592E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9199651110455561E-5</c:v>
+                  <c:v>1.9861881201591549E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7647497599056006E-5</c:v>
+                  <c:v>2.8601108930291832E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7631316176492898E-5</c:v>
+                  <c:v>3.8929287155119439E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9151106842766233E-5</c:v>
+                  <c:v>5.0846415876074369E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.2206869597876015E-5</c:v>
+                  <c:v>6.4352495093156627E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.6798604441822243E-5</c:v>
+                  <c:v>7.9447524806366198E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0719441776728897E-4</c:v>
+                  <c:v>3.1779009922546479E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.9118743997640016E-4</c:v>
+                  <c:v>7.1502772325729577E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2287776710691559E-3</c:v>
+                  <c:v>1.2711603969018592E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.919965111045556E-3</c:v>
+                  <c:v>1.986188120159155E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7647497599056006E-3</c:v>
+                  <c:v>2.8601108930291831E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.7631316176492896E-3</c:v>
+                  <c:v>3.8929287155119439E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.9151106842766235E-3</c:v>
+                  <c:v>5.0846415876074367E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.2206869597876014E-3</c:v>
+                  <c:v>6.4352495093156622E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.6798604441822241E-3</c:v>
+                  <c:v>7.9447524806366202E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.0719441776728897E-2</c:v>
+                  <c:v>3.1779009922546481E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.9118743997640009E-2</c:v>
+                  <c:v>7.1502772325729588E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.12287776710691559</c:v>
+                  <c:v>0.12711603969018592</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.19199651110455559</c:v>
+                  <c:v>0.1986188120159155</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.27647497599056003</c:v>
+                  <c:v>0.28601108930291835</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.37631316176492896</c:v>
+                  <c:v>0.38929287155119441</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.49151106842766235</c:v>
+                  <c:v>0.50846415876074369</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.62206869597876013</c:v>
+                  <c:v>0.64352495093156625</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.76798604441822238</c:v>
+                  <c:v>0.79447524806366199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1327,7 +1358,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1413,7 +1444,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$29:$C$46</c:f>
+              <c:f>Sheet1!$J$29:$J$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1486,7 +1517,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$1</c:f>
+              <c:f>Sheet1!$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1572,63 +1603,63 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$29:$T$47</c:f>
+              <c:f>Sheet1!$Z$29:$Z$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.76798604441822238</c:v>
+                  <c:v>0.79447524806366199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0719441776728895</c:v>
+                  <c:v>3.1779009922546479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9118743997640015</c:v>
+                  <c:v>7.1502772325729582</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.287776710691558</c:v>
+                  <c:v>12.711603969018592</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.199651110455559</c:v>
+                  <c:v>19.861881201591551</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.647497599056006</c:v>
+                  <c:v>28.601108930291833</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.631316176492895</c:v>
+                  <c:v>38.929287155119439</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.151106842766232</c:v>
+                  <c:v>50.846415876074367</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62.206869597876015</c:v>
+                  <c:v>64.35249509315662</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76.798604441822235</c:v>
+                  <c:v>79.447524806366204</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>307.19441776728894</c:v>
+                  <c:v>317.79009922546481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>691.18743997640013</c:v>
+                  <c:v>715.02772325729586</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1228.7776710691558</c:v>
+                  <c:v>1271.1603969018593</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1919.9651110455559</c:v>
+                  <c:v>1986.188120159155</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2764.7497599056005</c:v>
+                  <c:v>2860.1108930291834</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3763.1316176492896</c:v>
+                  <c:v>3892.9287155119437</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4915.110684276623</c:v>
+                  <c:v>5084.641587607437</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6220.6869597876012</c:v>
+                  <c:v>6435.2495093156622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1923,39 +1954,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$11:$B$20</c:f>
+              <c:f>Sheet1!$I$11:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>1.7039274833589347E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0000000000000001E-3</c:v>
+                  <c:v>3.4078549667178695E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9999999999999993E-3</c:v>
+                  <c:v>5.1117824500768044E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>6.815709933435739E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0000000000000001E-3</c:v>
+                  <c:v>8.5196374167946735E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>1.0223564900153609E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>1.1927492383512543E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>1.3631419866871478E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0999999999999999E-2</c:v>
+                  <c:v>1.5335347350230413E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.02</c:v>
+                  <c:v>1.7039274833589347E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1972,7 +2003,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2034,7 +2065,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$11:$C$20</c:f>
+              <c:f>Sheet1!$J$11:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2473,39 +2504,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$20:$B$29</c:f>
+              <c:f>Sheet1!$F$20:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                  <c:v>1.4333333333333332E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04</c:v>
+                  <c:v>3.0333333333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.8000000000000004E-2</c:v>
+                  <c:v>7.4333333333333335E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9000000000000006E-2</c:v>
+                  <c:v>6.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.29466666666666669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.08</c:v>
+                  <c:v>8.7333333333333332E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6000000000000002E-2</c:v>
+                  <c:v>0.10666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.121</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13400000000000001</c:v>
+                  <c:v>0.14566666666666669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.16500000000000001</c:v>
+                  <c:v>0.20866666666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2522,7 +2553,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2584,7 +2615,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$20:$C$29</c:f>
+              <c:f>Sheet1!$J$20:$J$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3033,39 +3064,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$29:$B$38</c:f>
+              <c:f>Sheet1!$F$29:$F$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.16500000000000001</c:v>
+                  <c:v>0.20866666666666664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0569999999999999</c:v>
+                  <c:v>1.2576666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5549999999999999</c:v>
+                  <c:v>1.2863333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71399999999999997</c:v>
+                  <c:v>0.59299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48299999999999998</c:v>
+                  <c:v>0.51733333333333331</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59899999999999998</c:v>
+                  <c:v>0.61833333333333329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.748</c:v>
+                  <c:v>0.71433333333333326</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.81899999999999995</c:v>
+                  <c:v>0.80566666666666664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1579999999999999</c:v>
+                  <c:v>1.0066666666666666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.214</c:v>
+                  <c:v>1.1053333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3082,7 +3113,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3144,7 +3175,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$29:$C$38</c:f>
+              <c:f>Sheet1!$J$29:$J$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3595,36 +3626,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$38:$B$46</c:f>
+              <c:f>Sheet1!$F$38:$F$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.214</c:v>
+                  <c:v>1.1053333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6930000000000001</c:v>
+                  <c:v>2.4856666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.53</c:v>
+                  <c:v>3.9343333333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0540000000000003</c:v>
+                  <c:v>5.4236666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.9219999999999997</c:v>
+                  <c:v>7.0283333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.3670000000000009</c:v>
+                  <c:v>8.6013333333333328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.782</c:v>
+                  <c:v>10.476333333333335</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.15</c:v>
+                  <c:v>11.490333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.513999999999999</c:v>
+                  <c:v>13.316666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3641,7 +3672,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3700,7 +3731,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$38:$C$46</c:f>
+              <c:f>Sheet1!$J$38:$J$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4143,36 +4174,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$38:$B$46</c:f>
+              <c:f>Sheet1!$F$38:$F$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.214</c:v>
+                  <c:v>1.1053333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6930000000000001</c:v>
+                  <c:v>2.4856666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.53</c:v>
+                  <c:v>3.9343333333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0540000000000003</c:v>
+                  <c:v>5.4236666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.9219999999999997</c:v>
+                  <c:v>7.0283333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.3670000000000009</c:v>
+                  <c:v>8.6013333333333328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.782</c:v>
+                  <c:v>10.476333333333335</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.15</c:v>
+                  <c:v>11.490333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.513999999999999</c:v>
+                  <c:v>13.316666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4589,39 +4620,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$29:$B$38</c:f>
+              <c:f>Sheet1!$F$29:$F$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.16500000000000001</c:v>
+                  <c:v>0.20866666666666664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0569999999999999</c:v>
+                  <c:v>1.2576666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5549999999999999</c:v>
+                  <c:v>1.2863333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71399999999999997</c:v>
+                  <c:v>0.59299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48299999999999998</c:v>
+                  <c:v>0.51733333333333331</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59899999999999998</c:v>
+                  <c:v>0.61833333333333329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.748</c:v>
+                  <c:v>0.71433333333333326</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.81899999999999995</c:v>
+                  <c:v>0.80566666666666664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1579999999999999</c:v>
+                  <c:v>1.0066666666666666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.214</c:v>
+                  <c:v>1.1053333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5190,7 +5221,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Sheet1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5306,7 +5337,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$29</c:f>
+              <c:f>Sheet1!$R$2:$R$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -5314,85 +5345,85 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2412242024342768E-5</c:v>
+                  <c:v>2.2217969478041558E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.328384474850516E-5</c:v>
+                  <c:v>5.2821972697294605E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9648968097371073E-5</c:v>
+                  <c:v>8.8871877912166233E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3009903606434173E-4</c:v>
+                  <c:v>1.2897131885603649E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7380441557003859E-4</c:v>
+                  <c:v>1.7229785382871386E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2021691286484735E-4</c:v>
+                  <c:v>2.1830804090306954E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6894690429211325E-4</c:v>
+                  <c:v>2.6661563373649866E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1970306849103089E-4</c:v>
+                  <c:v>3.1693183618376758E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.7225928225039732E-4</c:v>
+                  <c:v>3.6903248510228076E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.6864098474422236E-4</c:v>
+                  <c:v>9.602446649849772E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6496162942362432E-3</c:v>
+                  <c:v>1.6353171822797883E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.3855268099752997E-3</c:v>
+                  <c:v>2.3648487195307849E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.1622867718954038E-3</c:v>
+                  <c:v>3.1348756140717688E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.9715998492027699E-3</c:v>
+                  <c:v>3.9371734489008232E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.8079841044012554E-3</c:v>
+                  <c:v>4.7663078047466617E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.6675433009243104E-3</c:v>
+                  <c:v>5.6184162181832321E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.5473642251638849E-3</c:v>
+                  <c:v>6.4906107277582035E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.4451856450079455E-3</c:v>
+                  <c:v>7.3806497020456156E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.713159549245017E-2</c:v>
+                  <c:v>1.6983096351895387E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.7663941409874354E-2</c:v>
+                  <c:v>2.7424146375866307E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.8745639389768896E-2</c:v>
+                  <c:v>3.8409786599399087E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.0235831831473905E-2</c:v>
+                  <c:v>4.9800380395831727E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.2051555427051534E-2</c:v>
+                  <c:v>6.1513683595145079E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.4137990801540363E-2</c:v>
+                  <c:v>7.3495352004626271E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.6456175589274889E-2</c:v>
+                  <c:v>8.5706760990014799E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.8976977654174611E-2</c:v>
+                  <c:v>9.8119030936787296E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.11167778467511918</c:v>
+                  <c:v>0.11070974553068423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5784,7 +5815,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Sheet1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5870,63 +5901,63 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$29:$L$46</c:f>
+              <c:f>Sheet1!$R$29:$R$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.11167778467511918</c:v>
+                  <c:v>0.11070974553068423</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24576781137458112</c:v>
+                  <c:v>0.24363746053941002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38831719877386278</c:v>
+                  <c:v>0.38495120928934734</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53636010679784785</c:v>
+                  <c:v>0.5317108600349032</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.68848795943993757</c:v>
+                  <c:v>0.68252004650945763</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.84387112362075367</c:v>
+                  <c:v>0.83655632701281923</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0019614055906816</c:v>
+                  <c:v>0.99327625961785915</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1623691816930668</c:v>
+                  <c:v>1.1522935979819726</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3248031305671035</c:v>
+                  <c:v>1.3133195459599256</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4890371290015891</c:v>
+                  <c:v>1.476129940409123</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2021966782466063</c:v>
+                  <c:v>3.1744395755986621</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9999498344898194</c:v>
+                  <c:v>4.9566095482003156</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.8526381969800676</c:v>
+                  <c:v>6.7932385407581553</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.7461760056513622</c:v>
+                  <c:v>8.6703628906059791</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.672266929709922</c:v>
+                  <c:v>10.579758180741878</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.625429031659598</c:v>
+                  <c:v>12.515989991894557</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.601766074933845</c:v>
+                  <c:v>14.475195860637971</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16.598364845924614</c:v>
+                  <c:v>16.454487825519784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12254,13 +12285,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -12284,13 +12315,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -12316,13 +12347,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -12348,13 +12379,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -12380,13 +12411,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -12412,14 +12443,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>244929</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>549729</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -12444,16 +12475,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>31297</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>155121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>250372</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12474,285 +12505,16 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5786904" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="TextBox 12"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8658225" y="209550"/>
-              <a:ext cx="5786904" cy="175369"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑦</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=3.364217441163×</m:t>
-                    </m:r>
-                    <m:sSup>
-                      <m:sSupPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSupPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>10</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>−11</m:t>
-                        </m:r>
-                      </m:sup>
-                    </m:sSup>
-                    <m:sSup>
-                      <m:sSupPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSupPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑥</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>3</m:t>
-                        </m:r>
-                      </m:sup>
-                    </m:sSup>
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>+3.410762082262×</m:t>
-                    </m:r>
-                    <m:sSup>
-                      <m:sSupPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSupPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>10</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>−7</m:t>
-                        </m:r>
-                      </m:sup>
-                    </m:sSup>
-                    <m:sSup>
-                      <m:sSupPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSupPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑥</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>2</m:t>
-                        </m:r>
-                      </m:sup>
-                    </m:sSup>
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>+0.00020337</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑥</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>+0.000974621</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-GB" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="TextBox 12"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8658225" y="209550"/>
-              <a:ext cx="5786904" cy="175369"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑦=3.364217441163</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>×〖10〗^(−11) 𝑥^3+3.410762082262×〖10〗^(−7) 𝑥^2+0.00020337𝑥+0.000974621</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-GB" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>566737</xdr:colOff>
+      <xdr:colOff>566739</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>94</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -12775,13 +12537,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
       <xdr:row>94</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -12813,8 +12575,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>109</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -12839,13 +12601,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>371477</xdr:colOff>
       <xdr:row>94</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>390526</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -13135,19 +12897,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U66"/>
+  <dimension ref="A1:AA108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="9.140625" customWidth="1"/>
+    <col min="18" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -13155,24 +12917,51 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1">
-        <f>AVERAGE(K12:K46)</f>
-        <v>3.7225928225039729E-5</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1">
+        <f>AVERAGE(Q12:Q46)</f>
+        <v>3.6903248510228077E-5</v>
+      </c>
+      <c r="W1" t="s">
         <v>4</v>
       </c>
-      <c r="S1">
-        <f>AVERAGE(S3:S46)</f>
-        <v>7.6798604441822239E-7</v>
+      <c r="Y1" s="1">
+        <f>AVERAGE(Y3:Y46)</f>
+        <v>7.9447524806366202E-7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13183,54 +12972,51 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f>B2</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>1E-3</v>
       </c>
       <c r="F2">
-        <f>AVERAGE(E2:E46)</f>
-        <v>1.5557253968253969E-4</v>
-      </c>
-      <c r="G2">
-        <f>$F$2*A2</f>
-        <v>1.5557253968253969E-4</v>
+        <f t="shared" ref="F2:F46" si="0">AVERAGE(B2:D2)</f>
+        <v>3.3333333333333332E-4</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(G2:G46)</f>
+        <v>1.7039274833589347E-4</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I46" si="1">$H$2*A2</f>
+        <v>1.7039274833589347E-4</v>
       </c>
       <c r="J2">
-        <f>A2*LOG10(A2)</f>
         <v>0</v>
       </c>
-      <c r="L2">
-        <f>$K$1*(A2*LOG10(A2))</f>
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <f>3.3338189156859*POWER(10,-12)</f>
-        <v>3.3338189156859001E-12</v>
-      </c>
-      <c r="N2">
-        <f>5.146445308627*POWER(10,-7)</f>
-        <v>5.1464453086269996E-7</v>
-      </c>
       <c r="O2">
-        <v>8.9181100000000006E-5</v>
+        <f>AVERAGE(J2:N2)</f>
+        <v>0</v>
       </c>
       <c r="P2">
-        <f>0.00625392</f>
-        <v>6.2539199999999996E-3</v>
-      </c>
-      <c r="Q2">
-        <f>SUM($P$2,$O$2*A2,POWER(A2,2)*$N$2,POWER(A2,3)*$M$2)</f>
-        <v>6.343615747864682E-3</v>
+        <f t="shared" ref="P2:P46" si="2">A2*LOG10(A2)</f>
+        <v>0</v>
       </c>
       <c r="R2">
-        <f>A2^2</f>
+        <f>$Q$1*(A2*LOG(A2))</f>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f t="shared" ref="X2:X46" si="3">A2^2</f>
         <v>1</v>
       </c>
-      <c r="T2">
-        <f>$S$1*R2</f>
-        <v>7.6798604441822239E-7</v>
+      <c r="Z2">
+        <f>$Y$1*X2</f>
+        <v>7.9447524806366202E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13238,42 +13024,58 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C3">
+        <v>1E-3</v>
+      </c>
+      <c r="D3">
+        <v>1E-3</v>
+      </c>
+      <c r="E3">
         <v>2E-3</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D46" si="0">B3</f>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G46" si="1">$F$2*A3</f>
-        <v>3.1114507936507937E-4</v>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666668E-3</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>3.4078549667178695E-4</v>
       </c>
       <c r="J3">
-        <f>A3*LOG10(A3)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="K3">
+        <v>1E-3</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O46" si="4">AVERAGE(J3:N3)</f>
+        <v>1.5E-3</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="2"/>
         <v>0.6020599913279624</v>
       </c>
-      <c r="L3">
-        <f>$K$1*(A3*LOG10(A3))</f>
-        <v>2.2412242024342768E-5</v>
-      </c>
-      <c r="Q3">
-        <f>SUM($P$2,$O$2*A3,POWER(A3,2)*$N$2,POWER(A3,3)*$M$2)</f>
-        <v>6.4343408047940016E-3</v>
-      </c>
       <c r="R3">
-        <f t="shared" ref="R3:R47" si="2">A3^2</f>
+        <f>$Q$1*(A3*LOG(A3))</f>
+        <v>2.2217969478041558E-5</v>
+      </c>
+      <c r="S3">
+        <f>MAX(Q3:Q46)</f>
+        <v>5.9114388057823495E-5</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T46" si="3">$S$1*R3</f>
-        <v>3.0719441776728896E-6</v>
-      </c>
-      <c r="U3">
-        <f>MAX(S3:S46)</f>
-        <v>3.6200000000000001E-6</v>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z46" si="5">$Y$1*X3</f>
+        <v>3.1779009922546481E-6</v>
+      </c>
+      <c r="AA3">
+        <f>MAX(Y3:Y46)</f>
+        <v>4.3333333333333331E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13284,35 +13086,47 @@
         <v>1E-3</v>
       </c>
       <c r="D4">
+        <v>1E-3</v>
+      </c>
+      <c r="E4">
+        <v>1E-3</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <f t="shared" si="1"/>
-        <v>4.6671761904761906E-4</v>
+        <v>5.1117824500768042E-4</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J46" si="4">A4*LOG10(A4)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="K4">
+        <v>1E-3</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
         <v>1.4313637641589874</v>
       </c>
-      <c r="L4">
-        <f t="shared" ref="L3:L46" si="5">$K$1*(A4*LOG10(A4))</f>
-        <v>5.328384474850516E-5</v>
-      </c>
-      <c r="Q4">
-        <f>SUM($P$2,$O$2*A4,POWER(A4,2)*$N$2,POWER(A4,3)*$M$2)</f>
-        <v>6.5260951907908744E-3</v>
-      </c>
       <c r="R4">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="R4:R46" si="6">$Q$1*(A4*LOG(A4))</f>
+        <v>5.2821972697294605E-5</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="T4">
-        <f t="shared" si="3"/>
-        <v>6.9118743997640015E-6</v>
+      <c r="Z4">
+        <f t="shared" si="5"/>
+        <v>7.150277232572958E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13323,35 +13137,47 @@
         <v>1E-3</v>
       </c>
       <c r="D5">
+        <v>1E-3</v>
+      </c>
+      <c r="E5">
+        <v>1E-3</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <f t="shared" si="1"/>
-        <v>6.2229015873015874E-4</v>
+        <v>6.815709933435739E-4</v>
       </c>
       <c r="J5">
+        <v>1E-3</v>
+      </c>
+      <c r="K5">
+        <v>1E-3</v>
+      </c>
+      <c r="O5">
         <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
         <v>2.4082399653118496</v>
       </c>
-      <c r="L5">
+      <c r="R5">
+        <f t="shared" si="6"/>
+        <v>8.8871877912166233E-5</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="Z5">
         <f t="shared" si="5"/>
-        <v>8.9648968097371073E-5</v>
-      </c>
-      <c r="Q5">
-        <f>SUM($P$2,$O$2*A5,POWER(A5,2)*$N$2,POWER(A5,3)*$M$2)</f>
-        <v>6.6188789258582138E-3</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="3"/>
-        <v>1.2287776710691558E-5</v>
+        <v>1.2711603969018592E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13359,38 +13185,50 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="C6">
+        <v>1E-3</v>
+      </c>
+      <c r="D6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E6">
         <v>2E-3</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <f t="shared" si="0"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G6">
+        <v>2.6666666666666666E-3</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="1"/>
-        <v>7.7786269841269838E-4</v>
+        <v>8.5196374167946737E-4</v>
       </c>
       <c r="J6">
+        <v>2E-3</v>
+      </c>
+      <c r="K6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="4"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
         <v>3.4948500216800942</v>
       </c>
-      <c r="L6">
+      <c r="R6">
+        <f t="shared" si="6"/>
+        <v>1.2897131885603649E-4</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="Z6">
         <f t="shared" si="5"/>
-        <v>1.3009903606434173E-4</v>
-      </c>
-      <c r="Q6">
-        <f>SUM($P$2,$O$2*A6,POWER(A6,2)*$N$2,POWER(A6,3)*$M$2)</f>
-        <v>6.7126920299989314E-3</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="3"/>
-        <v>1.9199651110455561E-5</v>
+        <v>1.9861881201591549E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13398,38 +13236,50 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C7">
+        <v>2E-3</v>
+      </c>
+      <c r="D7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <f t="shared" si="0"/>
+        <v>3.6666666666666666E-3</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>1.0223564900153608E-3</v>
+      </c>
+      <c r="J7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>9.3343523809523812E-4</v>
-      </c>
-      <c r="J7">
+      <c r="K7">
+        <v>2E-3</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="4"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
         <v>4.6689075023018614</v>
       </c>
-      <c r="L7">
+      <c r="R7">
+        <f t="shared" si="6"/>
+        <v>1.7229785382871386E-4</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="Z7">
         <f t="shared" si="5"/>
-        <v>1.7380441557003859E-4</v>
-      </c>
-      <c r="Q7">
-        <f>SUM($P$2,$O$2*A7,POWER(A7,2)*$N$2,POWER(A7,3)*$M$2)</f>
-        <v>6.8075345232159424E-3</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="3"/>
-        <v>2.7647497599056006E-5</v>
+        <v>2.8601108930291832E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13440,35 +13290,47 @@
         <v>2E-3</v>
       </c>
       <c r="D8">
+        <v>2E-3</v>
+      </c>
+      <c r="E8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <f t="shared" si="1"/>
-        <v>1.0890077777777779E-3</v>
+        <v>1.1927492383512544E-3</v>
       </c>
       <c r="J8">
+        <v>2E-3</v>
+      </c>
+      <c r="K8">
+        <v>2E-3</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="4"/>
+        <v>2E-3</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
         <v>5.9156862800997976</v>
       </c>
-      <c r="L8">
+      <c r="R8">
+        <f t="shared" si="6"/>
+        <v>2.1830804090306954E-4</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="Z8">
         <f t="shared" si="5"/>
-        <v>2.2021691286484735E-4</v>
-      </c>
-      <c r="Q8">
-        <f>SUM($P$2,$O$2*A8,POWER(A8,2)*$N$2,POWER(A8,3)*$M$2)</f>
-        <v>6.9034064255121602E-3</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="3"/>
-        <v>3.7631316176492898E-5</v>
+        <v>3.8929287155119439E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13476,38 +13338,50 @@
         <v>2E-3</v>
       </c>
       <c r="C9">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D9">
+        <v>1E-3</v>
+      </c>
+      <c r="E9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <f t="shared" si="1"/>
-        <v>1.2445803174603175E-3</v>
+        <v>1.3631419866871478E-3</v>
       </c>
       <c r="J9">
+        <v>2E-3</v>
+      </c>
+      <c r="K9">
+        <v>2E-3</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="4"/>
+        <v>2E-3</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
         <v>7.2247198959355483</v>
       </c>
-      <c r="L9">
+      <c r="R9">
+        <f t="shared" si="6"/>
+        <v>2.6661563373649866E-4</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="Z9">
         <f t="shared" si="5"/>
-        <v>2.6894690429211325E-4</v>
-      </c>
-      <c r="Q9">
-        <f>SUM($P$2,$O$2*A9,POWER(A9,2)*$N$2,POWER(A9,3)*$M$2)</f>
-        <v>7.0003077568904972E-3</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="3"/>
-        <v>4.9151106842766233E-5</v>
+        <v>5.0846415876074369E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13515,38 +13389,50 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="C10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>1.5335347350230412E-3</v>
+      </c>
+      <c r="J10">
         <v>2E-3</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>1.4001528571428571E-3</v>
-      </c>
-      <c r="J10">
+      <c r="K10">
+        <v>2E-3</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="4"/>
+        <v>2E-3</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
         <v>8.5881825849539233</v>
       </c>
-      <c r="L10">
+      <c r="R10">
+        <f t="shared" si="6"/>
+        <v>3.1693183618376758E-4</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="Z10">
         <f t="shared" si="5"/>
-        <v>3.1970306849103089E-4</v>
-      </c>
-      <c r="Q10">
-        <f>SUM($P$2,$O$2*A10,POWER(A10,2)*$N$2,POWER(A10,3)*$M$2)</f>
-        <v>7.0982385373538678E-3</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="3"/>
-        <v>6.2206869597876015E-5</v>
+        <v>6.4352495093156627E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>A2*10</f>
         <v>10</v>
@@ -13558,1770 +13444,2175 @@
         <v>2E-3</v>
       </c>
       <c r="D11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
+        <v>3.0000000000000005E-3</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>1.7039274833589347E-3</v>
+      </c>
+      <c r="J11">
+        <v>2E-3</v>
+      </c>
+      <c r="K11">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>1.5557253968253968E-3</v>
-      </c>
-      <c r="J11">
+      <c r="O11">
         <f t="shared" si="4"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="L11">
+      <c r="R11">
+        <f t="shared" si="6"/>
+        <v>3.6903248510228076E-4</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="Z11">
         <f t="shared" si="5"/>
-        <v>3.7225928225039732E-4</v>
-      </c>
-      <c r="Q11">
-        <f>SUM($P$2,$O$2*A11,POWER(A11,2)*$N$2,POWER(A11,3)*$M$2)</f>
-        <v>7.1971987869051852E-3</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="3"/>
-        <v>7.6798604441822243E-5</v>
+        <v>7.9447524806366198E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" ref="A12:A66" si="6">A3*10</f>
+        <f t="shared" ref="A12:A66" si="7">A3*10</f>
         <v>20</v>
       </c>
       <c r="B12">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="C12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>5.6666666666666671E-3</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>3.4078549667178695E-3</v>
+      </c>
+      <c r="J12">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
+      <c r="K12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="4"/>
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>3.1114507936507935E-3</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="4"/>
+      <c r="P12">
+        <f t="shared" si="2"/>
         <v>26.020599913279625</v>
       </c>
-      <c r="L12">
+      <c r="R12">
+        <f t="shared" si="6"/>
+        <v>9.602446649849772E-4</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="Z12">
         <f t="shared" si="5"/>
-        <v>9.6864098474422236E-4</v>
-      </c>
-      <c r="Q12">
-        <f>SUM($P$2,$O$2*A12,POWER(A12,2)*$N$2,POWER(A12,3)*$M$2)</f>
-        <v>8.243426482896405E-3</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="2"/>
-        <v>400</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="3"/>
-        <v>3.0719441776728897E-4</v>
+        <v>3.1779009922546479E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="B13">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="C13">
+        <v>0.01</v>
+      </c>
+      <c r="D13">
+        <v>0.01</v>
+      </c>
+      <c r="E13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>9.6666666666666654E-3</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>5.1117824500768044E-3</v>
+      </c>
+      <c r="J13">
         <v>1.9E-2</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>4.6671761904761907E-3</v>
-      </c>
-      <c r="J13">
+      <c r="K13">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
         <v>44.313637641589871</v>
       </c>
-      <c r="L13">
+      <c r="R13">
+        <f t="shared" si="6"/>
+        <v>1.6353171822797883E-3</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="Z13">
         <f t="shared" si="5"/>
-        <v>1.6496162942362432E-3</v>
-      </c>
-      <c r="Q13">
-        <f>SUM($P$2,$O$2*A13,POWER(A13,2)*$N$2,POWER(A13,3)*$M$2)</f>
-        <v>9.392623090887153E-3</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="2"/>
-        <v>900</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="3"/>
-        <v>6.9118743997640016E-4</v>
+        <v>7.1502772325729577E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="B14">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="C14">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D14">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E14">
         <v>1.4E-2</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <f t="shared" si="0"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ref="E14:E45" si="7">D14/A14</f>
-        <v>1.5000000000000001E-4</v>
+        <v>9.3333333333333341E-3</v>
       </c>
       <c r="G14">
+        <f t="shared" ref="G14:G21" si="8">F14/A14</f>
+        <v>2.3333333333333336E-4</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="1"/>
-        <v>6.222901587301587E-3</v>
+        <v>6.815709933435739E-3</v>
       </c>
       <c r="J14">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K14">
+        <v>1.2E-2</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="4"/>
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
         <v>64.082399653118486</v>
       </c>
-      <c r="L14">
+      <c r="R14">
+        <f t="shared" si="6"/>
+        <v>2.3648487195307849E-3</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
+      <c r="Z14">
         <f t="shared" si="5"/>
-        <v>2.3855268099752997E-3</v>
-      </c>
-      <c r="Q14">
-        <f>SUM($P$2,$O$2*A14,POWER(A14,2)*$N$2,POWER(A14,3)*$M$2)</f>
-        <v>1.0644808613790923E-2</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="2"/>
-        <v>1600</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="3"/>
-        <v>1.2287776710691559E-3</v>
+        <v>1.2711603969018592E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="B15">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="C15">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D15">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E15">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>7.3333333333333332E-3</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="8"/>
+        <v>1.4666666666666666E-4</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>8.5196374167946735E-3</v>
+      </c>
+      <c r="J15">
         <v>1.2E-2</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="E15">
+      <c r="K15">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>84.948500216800937</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="6"/>
+        <v>3.1348756140717688E-3</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="3"/>
+        <v>2500</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="5"/>
+        <v>1.986188120159155E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16">
         <f t="shared" si="7"/>
-        <v>1.4000000000000001E-4</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>7.7786269841269842E-3</v>
-      </c>
-      <c r="H15">
-        <f>C15</f>
-        <v>1.2E-2</v>
-      </c>
-      <c r="I15">
-        <f>A15</f>
-        <v>50</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="4"/>
-        <v>84.948500216800937</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="5"/>
-        <v>3.1622867718954038E-3</v>
-      </c>
-      <c r="Q15">
-        <f>SUM($P$2,$O$2*A15,POWER(A15,2)*$N$2,POWER(A15,3)*$M$2)</f>
-        <v>1.2000003054521209E-2</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="2"/>
-        <v>2500</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="3"/>
-        <v>1.919965111045556E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="B16">
         <v>0.01</v>
       </c>
       <c r="C16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D16">
+        <v>0.01</v>
+      </c>
+      <c r="E16">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="8"/>
+        <v>1.5000000000000001E-4</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>1.0223564900153609E-2</v>
+      </c>
+      <c r="J16">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D16">
+      <c r="K16">
+        <v>1.9E-2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
+        <v>2.0499999999999997E-2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>106.68907502301862</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="6"/>
+        <v>3.9371734489008232E-3</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="3"/>
+        <v>3600</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="5"/>
+        <v>2.8601108930291831E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C17">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D17">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E17">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>9.3333333333333341E-3</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="8"/>
+        <v>1.3333333333333334E-4</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>1.1927492383512543E-2</v>
+      </c>
+      <c r="J17">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K17">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>129.156862800998</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="6"/>
+        <v>4.7663078047466617E-3</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="3"/>
+        <v>4900</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="5"/>
+        <v>3.8929287155119439E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C18">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D18">
+        <v>0.01</v>
+      </c>
+      <c r="E18">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="8"/>
+        <v>1.1250000000000001E-4</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>1.3631419866871478E-2</v>
+      </c>
+      <c r="J18">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K18">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>2.5500000000000002E-2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="2"/>
+        <v>152.24719895935547</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" ref="Q18:Q46" si="9">F18/P18</f>
+        <v>5.9114388057823495E-5</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="6"/>
+        <v>5.6184162181832321E-3</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="3"/>
+        <v>6400</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="5"/>
+        <v>5.0846415876074367E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="B19">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C19">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D19">
+        <v>0.01</v>
+      </c>
+      <c r="E19">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="E16">
+      <c r="G19">
+        <f t="shared" si="8"/>
+        <v>1.1111111111111112E-4</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>1.5335347350230413E-2</v>
+      </c>
+      <c r="J19">
+        <v>3.1E-2</v>
+      </c>
+      <c r="K19">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="4"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="2"/>
+        <v>175.88182584953924</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="9"/>
+        <v>5.6856357680495376E-5</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="6"/>
+        <v>6.4906107277582035E-3</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="3"/>
+        <v>8100</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="5"/>
+        <v>6.4352495093156622E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20">
         <f t="shared" si="7"/>
-        <v>1.6666666666666666E-4</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>9.3343523809523814E-3</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="4"/>
-        <v>106.68907502301862</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="5"/>
-        <v>3.9715998492027699E-3</v>
-      </c>
-      <c r="Q16">
-        <f>SUM($P$2,$O$2*A16,POWER(A16,2)*$N$2,POWER(A16,3)*$M$2)</f>
-        <v>1.3458226415991507E-2</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="2"/>
-        <v>3600</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="3"/>
-        <v>2.7647497599056006E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="6"/>
-        <v>70</v>
-      </c>
-      <c r="B17">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C17">
-        <v>1.9E-2</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="7"/>
-        <v>1.1428571428571428E-4</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>1.0890077777777778E-2</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="4"/>
-        <v>129.156862800998</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="5"/>
-        <v>4.8079841044012554E-3</v>
-      </c>
-      <c r="Q17">
-        <f>SUM($P$2,$O$2*A17,POWER(A17,2)*$N$2,POWER(A17,3)*$M$2)</f>
-        <v>1.5019498701115311E-2</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="2"/>
-        <v>4900</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="3"/>
-        <v>3.7631316176492896E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="6"/>
-        <v>80</v>
-      </c>
-      <c r="B18">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C18">
-        <v>2.4E-2</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="7"/>
-        <v>1E-4</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>1.2445803174603174E-2</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="4"/>
-        <v>152.24719895935547</v>
-      </c>
-      <c r="K18">
-        <f t="shared" ref="K18:K46" si="8">B18/J18</f>
-        <v>5.2546122718065325E-5</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="5"/>
-        <v>5.6675433009243104E-3</v>
-      </c>
-      <c r="Q18">
-        <f>SUM($P$2,$O$2*A18,POWER(A18,2)*$N$2,POWER(A18,3)*$M$2)</f>
-        <v>1.6683839912806111E-2</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="2"/>
-        <v>6400</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="3"/>
-        <v>4.9151106842766235E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="B19">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="C19">
-        <v>3.1E-2</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="7"/>
-        <v>1.2222222222222221E-4</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>1.4001528571428572E-2</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="4"/>
-        <v>175.88182584953924</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="5"/>
-        <v>6.5473642251638849E-3</v>
-      </c>
-      <c r="Q19">
-        <f>SUM($P$2,$O$2*A19,POWER(A19,2)*$N$2,POWER(A19,3)*$M$2)</f>
-        <v>1.8451270053977401E-2</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="2"/>
-        <v>8100</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="3"/>
-        <v>6.2206869597876014E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="B20">
         <v>0.02</v>
       </c>
       <c r="C20">
+        <v>0.01</v>
+      </c>
+      <c r="D20">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E20">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>1.4333333333333332E-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="8"/>
+        <v>1.4333333333333331E-4</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>1.7039274833589347E-2</v>
+      </c>
+      <c r="J20">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-      <c r="E20">
+      <c r="K20">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="6"/>
+        <v>7.3806497020456156E-3</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="3"/>
+        <v>10000</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="5"/>
+        <v>7.9447524806366202E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21">
         <f t="shared" si="7"/>
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
-        <v>1.5557253968253968E-2</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="5"/>
-        <v>7.4451856450079455E-3</v>
-      </c>
-      <c r="Q20">
-        <f>SUM($P$2,$O$2*A20,POWER(A20,2)*$N$2,POWER(A20,3)*$M$2)</f>
-        <v>2.0321809127542684E-2</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="2"/>
-        <v>10000</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="3"/>
-        <v>7.6798604441822241E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="B21">
         <v>0.04</v>
       </c>
       <c r="C21">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D21">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E21">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>3.0333333333333334E-2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="8"/>
+        <v>1.5166666666666668E-4</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>3.4078549667178694E-2</v>
+      </c>
+      <c r="J21">
         <v>0.16</v>
       </c>
-      <c r="D21">
+      <c r="K21">
+        <v>0.152</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="4"/>
+        <v>0.156</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="2"/>
+        <v>460.20599913279625</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="6"/>
+        <v>1.6983096351895387E-2</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="3"/>
+        <v>40000</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="5"/>
+        <v>3.1779009922546481E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+      <c r="B22">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="C22">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D22">
+        <v>0.06</v>
+      </c>
+      <c r="E22">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="0"/>
-        <v>0.04</v>
-      </c>
-      <c r="E21">
+        <v>7.4333333333333335E-2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>5.1117824500768044E-2</v>
+      </c>
+      <c r="J22">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="K22">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="4"/>
+        <v>0.39</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="2"/>
+        <v>743.13637641589878</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="6"/>
+        <v>2.7424146375866307E-2</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="3"/>
+        <v>90000</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" ref="Y15:Y45" si="10">O22/X22</f>
+        <v>4.3333333333333331E-6</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="5"/>
+        <v>7.1502772325729588E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23">
         <f t="shared" si="7"/>
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="G21">
+        <v>400</v>
+      </c>
+      <c r="B23">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C23">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D23">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E23">
+        <v>0.121</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23:G30" si="11">F23/A23</f>
+        <v>1.55E-4</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="1"/>
-        <v>3.1114507936507937E-2</v>
-      </c>
-      <c r="J21">
+        <v>6.8157099334357388E-2</v>
+      </c>
+      <c r="J23">
+        <v>1.51</v>
+      </c>
+      <c r="K23">
+        <v>2.1070000000000002</v>
+      </c>
+      <c r="O23">
         <f t="shared" si="4"/>
-        <v>460.20599913279625</v>
-      </c>
-      <c r="L21">
+        <v>1.8085</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="2"/>
+        <v>1040.823996531185</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="6"/>
+        <v>3.8409786599399087E-2</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="3"/>
+        <v>160000</v>
+      </c>
+      <c r="Z23">
         <f t="shared" si="5"/>
-        <v>1.713159549245017E-2</v>
-      </c>
-      <c r="Q21">
-        <f>SUM($P$2,$O$2*A21,POWER(A21,2)*$N$2,POWER(A21,3)*$M$2)</f>
-        <v>4.4702591785833481E-2</v>
-      </c>
-      <c r="R21">
+        <v>0.12711603969018592</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="B24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.74</v>
+      </c>
+      <c r="D24">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="E24">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.29466666666666669</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="11"/>
+        <v>5.8933333333333342E-4</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>8.5196374167946731E-2</v>
+      </c>
+      <c r="J24">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="K24">
+        <v>0.161</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="4"/>
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="2"/>
+        <v>1349.4850021680095</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="6"/>
+        <v>4.9800380395831727E-2</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="3"/>
+        <v>250000</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="5"/>
+        <v>0.1986188120159155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="7"/>
+        <v>600</v>
+      </c>
+      <c r="B25">
+        <v>0.08</v>
+      </c>
+      <c r="C25">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="D25">
+        <v>0.09</v>
+      </c>
+      <c r="E25">
+        <v>0.155</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>8.7333333333333332E-2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="11"/>
+        <v>1.4555555555555556E-4</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>0.10223564900153609</v>
+      </c>
+      <c r="J25">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="K25">
+        <v>0.217</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="4"/>
+        <v>0.31</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="2"/>
+        <v>1666.8907502301861</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="9"/>
+        <v>5.239295575986201E-5</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="6"/>
+        <v>6.1513683595145079E-2</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="3"/>
+        <v>360000</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="10"/>
+        <v>8.611111111111111E-7</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="5"/>
+        <v>0.28601108930291835</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="7"/>
+        <v>700</v>
+      </c>
+      <c r="B26">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.115</v>
+      </c>
+      <c r="D26">
+        <v>0.109</v>
+      </c>
+      <c r="E26">
+        <v>0.182</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0.10666666666666667</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="11"/>
+        <v>1.523809523809524E-4</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>0.11927492383512543</v>
+      </c>
+      <c r="J26">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="K26">
+        <v>0.189</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="4"/>
+        <v>0.2555</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="2"/>
+        <v>1991.5686280099799</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="9"/>
+        <v>5.3559121772896373E-5</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="6"/>
+        <v>7.3495352004626271E-2</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="3"/>
+        <v>490000</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="10"/>
+        <v>5.2142857142857144E-7</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="5"/>
+        <v>0.38929287155119441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="7"/>
+        <v>800</v>
+      </c>
+      <c r="B27">
+        <v>0.121</v>
+      </c>
+      <c r="C27">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="D27">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="E27">
+        <v>0.214</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="11"/>
+        <v>1.6249999999999999E-4</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>0.13631419866871478</v>
+      </c>
+      <c r="J27">
+        <v>0.375</v>
+      </c>
+      <c r="K27">
+        <v>0.379</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="4"/>
+        <v>0.377</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="2"/>
+        <v>2322.471989593555</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="9"/>
+        <v>5.5974840851686954E-5</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="6"/>
+        <v>8.5706760990014799E-2</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="3"/>
+        <v>640000</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="10"/>
+        <v>5.8906250000000002E-7</v>
+      </c>
+      <c r="Z27">
+        <f>$Y$1*X27</f>
+        <v>0.50846415876074369</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="7"/>
+        <v>900</v>
+      </c>
+      <c r="B28">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="C28">
+        <v>0.151</v>
+      </c>
+      <c r="D28">
+        <v>0.152</v>
+      </c>
+      <c r="E28">
+        <v>0.25</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0.14566666666666669</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="11"/>
+        <v>1.6185185185185188E-4</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>0.15335347350230413</v>
+      </c>
+      <c r="J28">
+        <v>0.49</v>
+      </c>
+      <c r="K28">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="4"/>
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="2"/>
+        <v>2658.8182584953925</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="9"/>
+        <v>5.4786244302797326E-5</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="6"/>
+        <v>9.8119030936787296E-2</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="3"/>
+        <v>810000</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="10"/>
+        <v>6.1790123456790115E-7</v>
+      </c>
+      <c r="Z28">
+        <f>$Y$1*X28</f>
+        <v>0.64352495093156625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="7"/>
+        <v>1000</v>
+      </c>
+      <c r="B29">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="C29">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="D29">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E29">
+        <v>2.2709999999999999</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0.20866666666666664</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="11"/>
+        <v>2.0866666666666665E-4</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>0.17039274833589346</v>
+      </c>
+      <c r="J29">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="K29">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="4"/>
+        <v>0.72</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="6"/>
+        <v>0.11070974553068423</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="3"/>
+        <v>1000000</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="10"/>
+        <v>7.1999999999999999E-7</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="5"/>
+        <v>0.79447524806366199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="B30">
+        <v>1.0569999999999999</v>
+      </c>
+      <c r="C30">
+        <v>1.3480000000000001</v>
+      </c>
+      <c r="D30">
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="E30">
+        <v>2.5150000000000001</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>1.2576666666666669</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="11"/>
+        <v>6.2883333333333346E-4</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>0.34078549667178692</v>
+      </c>
+      <c r="J30">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="K30">
+        <v>2.222</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="4"/>
+        <v>2.2210000000000001</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="2"/>
+        <v>6602.0599913279621</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="6"/>
+        <v>0.24363746053941002</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="3"/>
+        <v>4000000</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="10"/>
+        <v>5.5525E-7</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="5"/>
+        <v>3.1779009922546479</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="B31">
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="C31">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="D31">
+        <v>1.72</v>
+      </c>
+      <c r="E31">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>1.2863333333333333</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0.51117824500768039</v>
+      </c>
+      <c r="J31">
+        <v>5.0620000000000003</v>
+      </c>
+      <c r="K31">
+        <v>4.8929999999999998</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="4"/>
+        <v>4.9775</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>10431.363764158988</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="6"/>
+        <v>0.38495120928934734</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="3"/>
+        <v>9000000</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="10"/>
+        <v>5.5305555555555554E-7</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="5"/>
+        <v>7.1502772325729582</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="7"/>
+        <v>4000</v>
+      </c>
+      <c r="B32">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="C32">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="D32">
+        <v>0.373</v>
+      </c>
+      <c r="E32">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32:G46" si="12">F32/A32</f>
+        <v>1.4825E-4</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>0.68157099334357385</v>
+      </c>
+      <c r="J32">
+        <v>9.0960000000000001</v>
+      </c>
+      <c r="K32">
+        <v>8.6920000000000002</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="4"/>
+        <v>8.8940000000000001</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="2"/>
+        <v>14408.23996531185</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="9"/>
+        <v>4.1157004702008042E-5</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="6"/>
+        <v>0.5317108600349032</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="3"/>
+        <v>16000000</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="10"/>
+        <v>5.5587499999999999E-7</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="5"/>
+        <v>12.711603969018592</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="7"/>
+        <v>5000</v>
+      </c>
+      <c r="B33">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="C33">
+        <v>0.504</v>
+      </c>
+      <c r="D33">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="E33">
+        <v>2.1429999999999998</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0.51733333333333331</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="12"/>
+        <v>1.0346666666666666E-4</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>0.85196374167946742</v>
+      </c>
+      <c r="J33">
+        <v>13.734999999999999</v>
+      </c>
+      <c r="K33">
+        <v>13.484</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="4"/>
+        <v>13.609500000000001</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="2"/>
+        <v>18494.850021680093</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="9"/>
+        <v>2.7971750661773583E-5</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="6"/>
+        <v>0.68252004650945763</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="3"/>
+        <v>25000000</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="10"/>
+        <v>5.4438000000000001E-7</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="5"/>
+        <v>19.861881201591551</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="7"/>
+        <v>6000</v>
+      </c>
+      <c r="B34">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="C34">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="D34">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="E34">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0.61833333333333329</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="12"/>
+        <v>1.0305555555555555E-4</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>1.0223564900153608</v>
+      </c>
+      <c r="J34">
+        <v>19.77</v>
+      </c>
+      <c r="K34">
+        <v>19.434000000000001</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="4"/>
+        <v>19.602</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="2"/>
+        <v>22668.907502301859</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="9"/>
+        <v>2.7276715177850814E-5</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="6"/>
+        <v>0.83655632701281923</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="3"/>
+        <v>36000000</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="10"/>
+        <v>5.4450000000000004E-7</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="5"/>
+        <v>28.601108930291833</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="7"/>
+        <v>7000</v>
+      </c>
+      <c r="B35">
+        <v>0.748</v>
+      </c>
+      <c r="C35">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="D35">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="E35">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0.71433333333333326</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="12"/>
+        <v>1.0204761904761904E-4</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>1.1927492383512543</v>
+      </c>
+      <c r="J35">
+        <v>26.571000000000002</v>
+      </c>
+      <c r="K35">
+        <v>26.443999999999999</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="4"/>
+        <v>26.5075</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="2"/>
+        <v>26915.686280099799</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="9"/>
+        <v>2.6539666345475201E-5</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="6"/>
+        <v>0.99327625961785915</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="3"/>
+        <v>49000000</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="10"/>
+        <v>5.4096938775510203E-7</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="5"/>
+        <v>38.929287155119439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="7"/>
+        <v>8000</v>
+      </c>
+      <c r="B36">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="C36">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="D36">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="E36">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0.80566666666666664</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="12"/>
+        <v>1.0070833333333333E-4</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>1.3631419866871477</v>
+      </c>
+      <c r="J36">
+        <v>34.290999999999997</v>
+      </c>
+      <c r="K36">
+        <v>35.715000000000003</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="4"/>
+        <v>35.003</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="2"/>
+        <v>31224.719895935552</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="9"/>
+        <v>2.580220637212308E-5</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="6"/>
+        <v>1.1522935979819726</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="3"/>
+        <v>64000000</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="10"/>
+        <v>5.4692187499999995E-7</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="5"/>
+        <v>50.846415876074367</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="7"/>
+        <v>9000</v>
+      </c>
+      <c r="B37">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="C37">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="D37">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="E37">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>1.0066666666666666</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="12"/>
+        <v>1.1185185185185184E-4</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>1.5335347350230413</v>
+      </c>
+      <c r="J37">
+        <v>44.189</v>
+      </c>
+      <c r="K37">
+        <v>43.548999999999999</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="4"/>
+        <v>43.869</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="2"/>
+        <v>35588.182584953924</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="9"/>
+        <v>2.8286543272155405E-5</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="6"/>
+        <v>1.3133195459599256</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="3"/>
+        <v>81000000</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="10"/>
+        <v>5.4159259259259256E-7</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="5"/>
+        <v>64.35249509315662</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="7"/>
+        <v>10000</v>
+      </c>
+      <c r="B38">
+        <v>1.214</v>
+      </c>
+      <c r="C38">
+        <v>1.0589999999999999</v>
+      </c>
+      <c r="D38">
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="E38">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>1.1053333333333333</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="12"/>
+        <v>1.1053333333333333E-4</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>1.7039274833589348</v>
+      </c>
+      <c r="J38">
+        <v>57.296999999999997</v>
+      </c>
+      <c r="K38">
+        <v>55.328000000000003</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="4"/>
+        <v>56.3125</v>
+      </c>
+      <c r="P38">
         <f t="shared" si="2"/>
         <v>40000</v>
       </c>
-      <c r="T21">
+      <c r="Q38">
+        <f t="shared" si="9"/>
+        <v>2.7633333333333332E-5</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="6"/>
+        <v>1.476129940409123</v>
+      </c>
+      <c r="X38">
         <f t="shared" si="3"/>
-        <v>3.0719441776728897E-2</v>
+        <v>100000000</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="10"/>
+        <v>5.6312500000000001E-7</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="5"/>
+        <v>79.447524806366204</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="6"/>
-        <v>300</v>
-      </c>
-      <c r="B22">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="C22">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="G22">
-        <f>$F$2*A22</f>
-        <v>4.6671761904761903E-2</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="4"/>
-        <v>743.13637641589878</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="5"/>
-        <v>2.7663941409874354E-2</v>
-      </c>
-      <c r="Q22">
-        <f>SUM($P$2,$O$2*A22,POWER(A22,2)*$N$2,POWER(A22,3)*$M$2)</f>
-        <v>7.9416270888366516E-2</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="2"/>
-        <v>90000</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="3"/>
-        <v>6.9118743997640009E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="6"/>
-        <v>400</v>
-      </c>
-      <c r="B23">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="C23">
-        <v>1.51</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="E23">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39">
         <f t="shared" si="7"/>
-        <v>1.7250000000000002E-4</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>6.2229015873015874E-2</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="4"/>
-        <v>1040.823996531185</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="5"/>
-        <v>3.8745639389768896E-2</v>
-      </c>
-      <c r="Q23">
-        <f>SUM($P$2,$O$2*A23,POWER(A23,2)*$N$2,POWER(A23,3)*$M$2)</f>
-        <v>0.12448284934863588</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="2"/>
-        <v>160000</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="3"/>
-        <v>0.12287776710691559</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="B24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C24">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="7"/>
-        <v>1.4000000000000001E-4</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
-        <v>7.7786269841269837E-2</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="4"/>
-        <v>1349.4850021680095</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="8"/>
-        <v>5.1871639838561967E-5</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="5"/>
-        <v>5.0235831831473905E-2</v>
-      </c>
-      <c r="Q24">
-        <f>SUM($P$2,$O$2*A24,POWER(A24,2)*$N$2,POWER(A24,3)*$M$2)</f>
-        <v>0.17992233008013575</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="2"/>
-        <v>250000</v>
-      </c>
-      <c r="S24">
-        <f t="shared" ref="S4:S47" si="9">C24/R24</f>
-        <v>3.6200000000000001E-6</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="3"/>
-        <v>0.19199651110455559</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="6"/>
-        <v>600</v>
-      </c>
-      <c r="B25">
-        <v>0.08</v>
-      </c>
-      <c r="C25">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>0.08</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="7"/>
-        <v>1.3333333333333334E-4</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
-        <v>9.3343523809523807E-2</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="4"/>
-        <v>1666.8907502301861</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="8"/>
-        <v>4.7993547260942298E-5</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="5"/>
-        <v>6.2051555427051534E-2</v>
-      </c>
-      <c r="Q25">
-        <f>SUM($P$2,$O$2*A25,POWER(A25,2)*$N$2,POWER(A25,3)*$M$2)</f>
-        <v>0.24575471599636017</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="2"/>
-        <v>360000</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="9"/>
-        <v>1.1194444444444444E-6</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="3"/>
-        <v>0.27647497599056003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="6"/>
-        <v>700</v>
-      </c>
-      <c r="B26">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="C26">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="7"/>
-        <v>1.3714285714285713E-4</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="1"/>
-        <v>0.10890077777777778</v>
-      </c>
-      <c r="H26">
-        <f>C26</f>
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="I26">
-        <f>A26</f>
-        <v>700</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="4"/>
-        <v>1991.5686280099799</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="8"/>
-        <v>4.8203209595606732E-5</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="5"/>
-        <v>7.4137990801540363E-2</v>
-      </c>
-      <c r="Q26">
-        <f>SUM($P$2,$O$2*A26,POWER(A26,2)*$N$2,POWER(A26,3)*$M$2)</f>
-        <v>0.32200001001080325</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="2"/>
-        <v>490000</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="9"/>
-        <v>6.5714285714285714E-7</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="3"/>
-        <v>0.37631316176492896</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="6"/>
-        <v>800</v>
-      </c>
-      <c r="B27">
-        <v>0.121</v>
-      </c>
-      <c r="C27">
-        <v>0.375</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>0.121</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="7"/>
-        <v>1.5124999999999999E-4</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="1"/>
-        <v>0.12445803174603175</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="4"/>
-        <v>2322.471989593555</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="8"/>
-        <v>5.2099659561954779E-5</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="5"/>
-        <v>8.6456175589274889E-2</v>
-      </c>
-      <c r="Q27">
-        <f>SUM($P$2,$O$2*A27,POWER(A27,2)*$N$2,POWER(A27,3)*$M$2)</f>
-        <v>0.40867821503695917</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="2"/>
-        <v>640000</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="9"/>
-        <v>5.8593749999999995E-7</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="3"/>
-        <v>0.49151106842766235</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="6"/>
-        <v>900</v>
-      </c>
-      <c r="B28">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="C28">
-        <v>0.49</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="7"/>
-        <v>1.4888888888888889E-4</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="1"/>
-        <v>0.14001528571428573</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="4"/>
-        <v>2658.8182584953925</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="8"/>
-        <v>5.0398329999369615E-5</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="5"/>
-        <v>9.8976977654174611E-2</v>
-      </c>
-      <c r="Q28">
-        <f>SUM($P$2,$O$2*A28,POWER(A28,2)*$N$2,POWER(A28,3)*$M$2)</f>
-        <v>0.50580933398832195</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="2"/>
-        <v>810000</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="9"/>
-        <v>6.0493827160493827E-7</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="3"/>
-        <v>0.62206869597876013</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="B29">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="C29">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="7"/>
-        <v>1.65E-4</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="1"/>
-        <v>0.15557253968253967</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="4"/>
-        <v>3000</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="5"/>
-        <v>0.11167778467511918</v>
-      </c>
-      <c r="Q29">
-        <f>SUM($P$2,$O$2*A29,POWER(A29,2)*$N$2,POWER(A29,3)*$M$2)</f>
-        <v>0.6134133697783859</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="2"/>
-        <v>1000000</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="9"/>
-        <v>5.9099999999999993E-7</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="3"/>
-        <v>0.76798604441822238</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="6"/>
-        <v>2000</v>
-      </c>
-      <c r="B30">
-        <v>1.0569999999999999</v>
-      </c>
-      <c r="C30">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>1.0569999999999999</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="7"/>
-        <v>5.285E-4</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="1"/>
-        <v>0.31114507936507935</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="4"/>
-        <v>6602.0599913279621</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="5"/>
-        <v>0.24576781137458112</v>
-      </c>
-      <c r="Q30">
-        <f>SUM($P$2,$O$2*A30,POWER(A30,2)*$N$2,POWER(A30,3)*$M$2)</f>
-        <v>2.2698647947762871</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="2"/>
-        <v>4000000</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="9"/>
-        <v>5.5500000000000009E-7</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="3"/>
-        <v>3.0719441776728895</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f t="shared" si="6"/>
-        <v>3000</v>
-      </c>
-      <c r="B31">
-        <v>1.5549999999999999</v>
-      </c>
-      <c r="C31">
-        <v>5.0620000000000003</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
-        <v>0.46671761904761905</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="4"/>
-        <v>10431.363764158988</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="5"/>
-        <v>0.38831719877386278</v>
-      </c>
-      <c r="Q31">
-        <f>SUM($P$2,$O$2*A31,POWER(A31,2)*$N$2,POWER(A31,3)*$M$2)</f>
-        <v>4.995611108487819</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="2"/>
-        <v>9000000</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="9"/>
-        <v>5.6244444444444451E-7</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="3"/>
-        <v>6.9118743997640015</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f t="shared" si="6"/>
-        <v>4000</v>
-      </c>
-      <c r="B32">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="C32">
-        <v>9.0960000000000001</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="7"/>
-        <v>1.785E-4</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="1"/>
-        <v>0.62229015873015869</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="4"/>
-        <v>14408.23996531185</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="8"/>
-        <v>4.9554976993648804E-5</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="5"/>
-        <v>0.53636010679784785</v>
-      </c>
-      <c r="Q32">
-        <f>SUM($P$2,$O$2*A32,POWER(A32,2)*$N$2,POWER(A32,3)*$M$2)</f>
-        <v>8.8106552244070979</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="2"/>
-        <v>16000000</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="9"/>
-        <v>5.6850000000000004E-7</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="3"/>
-        <v>12.287776710691558</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" si="6"/>
-        <v>5000</v>
-      </c>
-      <c r="B33">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="C33">
-        <v>13.734999999999999</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="7"/>
-        <v>9.6600000000000003E-5</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="1"/>
-        <v>0.77786269841269839</v>
-      </c>
-      <c r="H33">
-        <f>C33</f>
-        <v>13.734999999999999</v>
-      </c>
-      <c r="I33">
-        <f>A33</f>
-        <v>5000</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="4"/>
-        <v>18494.850021680093</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="8"/>
-        <v>2.6115378034091444E-5</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="5"/>
-        <v>0.68848795943993757</v>
-      </c>
-      <c r="Q33">
-        <f>SUM($P$2,$O$2*A33,POWER(A33,2)*$N$2,POWER(A33,3)*$M$2)</f>
-        <v>13.735000056028236</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="2"/>
-        <v>25000000</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="9"/>
-        <v>5.4939999999999998E-7</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="3"/>
-        <v>19.199651110455559</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="6"/>
-        <v>6000</v>
-      </c>
-      <c r="B34">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="C34">
-        <v>19.77</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="7"/>
-        <v>9.9833333333333325E-5</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="1"/>
-        <v>0.9334352380952381</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="4"/>
-        <v>22668.907502301859</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="8"/>
-        <v>2.6423858315147124E-5</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="5"/>
-        <v>0.84387112362075367</v>
-      </c>
-      <c r="Q34">
-        <f>SUM($P$2,$O$2*A34,POWER(A34,2)*$N$2,POWER(A34,3)*$M$2)</f>
-        <v>19.788648516845349</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="2"/>
-        <v>36000000</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="9"/>
-        <v>5.4916666666666667E-7</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="3"/>
-        <v>27.647497599056006</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="6"/>
-        <v>7000</v>
-      </c>
-      <c r="B35">
-        <v>0.748</v>
-      </c>
-      <c r="C35">
-        <v>26.571000000000002</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>0.748</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="7"/>
-        <v>1.0685714285714286E-4</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="1"/>
-        <v>1.0890077777777778</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="4"/>
-        <v>26915.686280099799</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="8"/>
-        <v>2.7790485897921772E-5</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="5"/>
-        <v>1.0019614055906816</v>
-      </c>
-      <c r="Q35">
-        <f>SUM($P$2,$O$2*A35,POWER(A35,2)*$N$2,POWER(A35,3)*$M$2)</f>
-        <v>26.991603520352562</v>
-      </c>
-      <c r="R35">
-        <f t="shared" si="2"/>
-        <v>49000000</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="9"/>
-        <v>5.4226530612244901E-7</v>
-      </c>
-      <c r="T35">
-        <f t="shared" si="3"/>
-        <v>37.631316176492895</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="6"/>
-        <v>8000</v>
-      </c>
-      <c r="B36">
-        <v>0.81899999999999995</v>
-      </c>
-      <c r="C36">
-        <v>34.290999999999997</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>0.81899999999999995</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="7"/>
-        <v>1.0237499999999999E-4</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="1"/>
-        <v>1.2445803174603174</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="4"/>
-        <v>31224.719895935552</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="8"/>
-        <v>2.6229218475923214E-5</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="5"/>
-        <v>1.1623691816930668</v>
-      </c>
-      <c r="Q36">
-        <f>SUM($P$2,$O$2*A36,POWER(A36,2)*$N$2,POWER(A36,3)*$M$2)</f>
-        <v>35.363867980043985</v>
-      </c>
-      <c r="R36">
-        <f t="shared" si="2"/>
-        <v>64000000</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="9"/>
-        <v>5.3579687499999991E-7</v>
-      </c>
-      <c r="T36">
-        <f t="shared" si="3"/>
-        <v>49.151106842766232</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="6"/>
-        <v>9000</v>
-      </c>
-      <c r="B37">
-        <v>1.1579999999999999</v>
-      </c>
-      <c r="C37">
-        <v>44.189</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>1.1579999999999999</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="7"/>
-        <v>1.2866666666666666E-4</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="1"/>
-        <v>1.4001528571428572</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="4"/>
-        <v>35588.182584953924</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="8"/>
-        <v>3.2538891168035721E-5</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="5"/>
-        <v>1.3248031305671035</v>
-      </c>
-      <c r="Q37">
-        <f>SUM($P$2,$O$2*A37,POWER(A37,2)*$N$2,POWER(A37,3)*$M$2)</f>
-        <v>44.925444809413719</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="2"/>
-        <v>81000000</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="9"/>
-        <v>5.455432098765432E-7</v>
-      </c>
-      <c r="T37">
-        <f t="shared" si="3"/>
-        <v>62.206869597876015</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="6"/>
-        <v>10000</v>
-      </c>
-      <c r="B38">
-        <v>1.214</v>
-      </c>
-      <c r="C38">
-        <v>57.296999999999997</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>1.214</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="7"/>
-        <v>1.214E-4</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="1"/>
-        <v>1.5557253968253968</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="4"/>
-        <v>40000</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="8"/>
-        <v>3.0349999999999999E-5</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="5"/>
-        <v>1.4890371290015891</v>
-      </c>
-      <c r="Q38">
-        <f>SUM($P$2,$O$2*A38,POWER(A38,2)*$N$2,POWER(A38,3)*$M$2)</f>
-        <v>55.696336921955904</v>
-      </c>
-      <c r="R38">
-        <f t="shared" si="2"/>
-        <v>100000000</v>
-      </c>
-      <c r="S38">
-        <f t="shared" si="9"/>
-        <v>5.7296999999999997E-7</v>
-      </c>
-      <c r="T38">
-        <f t="shared" si="3"/>
-        <v>76.798604441822235</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f t="shared" si="6"/>
         <v>20000</v>
       </c>
       <c r="B39">
         <v>2.6930000000000001</v>
       </c>
       <c r="C39">
+        <v>2.4620000000000002</v>
+      </c>
+      <c r="D39">
+        <v>2.302</v>
+      </c>
+      <c r="E39">
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>2.4856666666666669</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="12"/>
+        <v>1.2428333333333334E-4</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>3.4078549667178697</v>
+      </c>
+      <c r="J39">
         <v>247.00899999999999</v>
       </c>
-      <c r="D39">
-        <f t="shared" si="0"/>
-        <v>2.6930000000000001</v>
-      </c>
-      <c r="E39">
+      <c r="K39">
+        <v>248.51900000000001</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="4"/>
+        <v>247.76400000000001</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="2"/>
+        <v>86020.599913279628</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="9"/>
+        <v>2.8896179161416618E-5</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="6"/>
+        <v>3.1744395755986621</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="3"/>
+        <v>400000000</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="10"/>
+        <v>6.1941000000000001E-7</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="5"/>
+        <v>317.79009922546481</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40">
         <f t="shared" si="7"/>
-        <v>1.3464999999999999E-4</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="1"/>
-        <v>3.1114507936507936</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="4"/>
-        <v>86020.599913279628</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="8"/>
-        <v>3.1306454531994747E-5</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="5"/>
-        <v>3.2021966782466063</v>
-      </c>
-      <c r="Q39">
-        <f>SUM($P$2,$O$2*A39,POWER(A39,2)*$N$2,POWER(A39,3)*$M$2)</f>
-        <v>234.31823959056717</v>
-      </c>
-      <c r="R39">
-        <f t="shared" si="2"/>
-        <v>400000000</v>
-      </c>
-      <c r="S39">
-        <f t="shared" si="9"/>
-        <v>6.175225E-7</v>
-      </c>
-      <c r="T39">
-        <f t="shared" si="3"/>
-        <v>307.19441776728894</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f t="shared" si="6"/>
         <v>30000</v>
       </c>
       <c r="B40">
         <v>4.53</v>
       </c>
       <c r="C40">
+        <v>3.6509999999999998</v>
+      </c>
+      <c r="D40">
+        <v>3.6219999999999999</v>
+      </c>
+      <c r="E40">
+        <v>3.7</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>3.9343333333333335</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="12"/>
+        <v>1.3114444444444444E-4</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>5.1117824500768041</v>
+      </c>
+      <c r="J40">
         <v>578.91300000000001</v>
       </c>
-      <c r="D40">
-        <f t="shared" si="0"/>
-        <v>4.53</v>
-      </c>
-      <c r="E40">
+      <c r="K40">
+        <v>619.13099999999997</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="4"/>
+        <v>599.02199999999993</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="2"/>
+        <v>134313.63764158988</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="9"/>
+        <v>2.9292135946998406E-5</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="6"/>
+        <v>4.9566095482003156</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="3"/>
+        <v>900000000</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="10"/>
+        <v>6.655799999999999E-7</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="5"/>
+        <v>715.02772325729586</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41">
         <f t="shared" si="7"/>
-        <v>1.5100000000000001E-4</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="1"/>
-        <v>4.6671761904761908</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="4"/>
-        <v>134313.63764158988</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="8"/>
-        <v>3.3727029358612923E-5</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="5"/>
-        <v>4.9999498344898194</v>
-      </c>
-      <c r="Q40">
-        <f>SUM($P$2,$O$2*A40,POWER(A40,2)*$N$2,POWER(A40,3)*$M$2)</f>
-        <v>555.87487541994926</v>
-      </c>
-      <c r="R40">
-        <f t="shared" si="2"/>
-        <v>900000000</v>
-      </c>
-      <c r="S40">
-        <f t="shared" si="9"/>
-        <v>6.4323666666666666E-7</v>
-      </c>
-      <c r="T40">
-        <f t="shared" si="3"/>
-        <v>691.18743997640013</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f t="shared" si="6"/>
         <v>40000</v>
       </c>
       <c r="B41">
         <v>6.0540000000000003</v>
       </c>
       <c r="C41">
+        <v>5.0990000000000002</v>
+      </c>
+      <c r="D41">
+        <v>5.1180000000000003</v>
+      </c>
+      <c r="E41">
+        <v>5.1669999999999998</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>5.4236666666666666</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="12"/>
+        <v>1.3559166666666668E-4</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>6.8157099334357394</v>
+      </c>
+      <c r="J41">
         <v>1045.4159999999999</v>
       </c>
-      <c r="D41">
-        <f t="shared" si="0"/>
-        <v>6.0540000000000003</v>
-      </c>
-      <c r="E41">
+      <c r="K41">
+        <v>1163.7650000000001</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="4"/>
+        <v>1104.5905</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="2"/>
+        <v>184082.39965311851</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="9"/>
+        <v>2.9463254916748828E-5</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="6"/>
+        <v>6.7932385407581553</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="3"/>
+        <v>1600000000</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="10"/>
+        <v>6.9036906250000005E-7</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="5"/>
+        <v>1271.1603969018593</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42">
         <f t="shared" si="7"/>
-        <v>1.5135000000000002E-4</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="1"/>
-        <v>6.2229015873015872</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="4"/>
-        <v>184082.39965311851</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="8"/>
-        <v>3.2887446118738385E-5</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="5"/>
-        <v>6.8526381969800676</v>
-      </c>
-      <c r="Q41">
-        <f>SUM($P$2,$O$2*A41,POWER(A41,2)*$N$2,POWER(A41,3)*$M$2)</f>
-        <v>1040.3691579042177</v>
-      </c>
-      <c r="R41">
-        <f t="shared" si="2"/>
-        <v>1600000000</v>
-      </c>
-      <c r="S41">
-        <f t="shared" si="9"/>
-        <v>6.5338499999999997E-7</v>
-      </c>
-      <c r="T41">
-        <f t="shared" si="3"/>
-        <v>1228.7776710691558</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f t="shared" si="6"/>
         <v>50000</v>
       </c>
       <c r="B42">
         <v>7.9219999999999997</v>
       </c>
       <c r="C42">
+        <v>6.6280000000000001</v>
+      </c>
+      <c r="D42">
+        <v>6.5350000000000001</v>
+      </c>
+      <c r="E42">
+        <v>6.8</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>7.0283333333333333</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="12"/>
+        <v>1.4056666666666668E-4</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>8.5196374167946729</v>
+      </c>
+      <c r="J42">
         <v>1707.8040000000001</v>
       </c>
-      <c r="D42">
-        <f t="shared" si="0"/>
-        <v>7.9219999999999997</v>
-      </c>
-      <c r="E42">
+      <c r="K42">
+        <v>1884.027</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="4"/>
+        <v>1795.9155000000001</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="2"/>
+        <v>234948.50021680092</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="9"/>
+        <v>2.9914357090374585E-5</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="6"/>
+        <v>8.6703628906059791</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="3"/>
+        <v>2500000000</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="10"/>
+        <v>7.1836620000000008E-7</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="5"/>
+        <v>1986.188120159155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43">
         <f t="shared" si="7"/>
-        <v>1.5844000000000001E-4</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="1"/>
-        <v>7.7786269841269844</v>
-      </c>
-      <c r="H42">
-        <f>C42</f>
-        <v>1707.8040000000001</v>
-      </c>
-      <c r="I42">
-        <f>A42</f>
-        <v>50000</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="4"/>
-        <v>234948.50021680092</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="8"/>
-        <v>3.3718027536629943E-5</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="5"/>
-        <v>8.7461760056513622</v>
-      </c>
-      <c r="Q42">
-        <f>SUM($P$2,$O$2*A42,POWER(A42,2)*$N$2,POWER(A42,3)*$M$2)</f>
-        <v>1707.8040005374876</v>
-      </c>
-      <c r="R42">
-        <f t="shared" si="2"/>
-        <v>2500000000</v>
-      </c>
-      <c r="S42">
-        <f t="shared" si="9"/>
-        <v>6.8312160000000008E-7</v>
-      </c>
-      <c r="T42">
-        <f t="shared" si="3"/>
-        <v>1919.9651110455559</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f t="shared" si="6"/>
         <v>60000</v>
       </c>
       <c r="B43">
         <v>9.3670000000000009</v>
       </c>
       <c r="C43">
+        <v>8.3529999999999998</v>
+      </c>
+      <c r="D43">
+        <v>8.0839999999999996</v>
+      </c>
+      <c r="E43">
+        <v>9.6790000000000003</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>8.6013333333333328</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="12"/>
+        <v>1.4335555555555554E-4</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>10.223564900153608</v>
+      </c>
+      <c r="J43">
         <v>2593.7220000000002</v>
       </c>
-      <c r="D43">
-        <f t="shared" si="0"/>
-        <v>9.3670000000000009</v>
-      </c>
-      <c r="E43">
+      <c r="K43">
+        <v>2775.212</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="4"/>
+        <v>2684.4670000000001</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="2"/>
+        <v>286689.07502301864</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="9"/>
+        <v>3.0002305921991344E-5</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="6"/>
+        <v>10.579758180741878</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="3"/>
+        <v>3600000000</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="10"/>
+        <v>7.4568527777777781E-7</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="5"/>
+        <v>2860.1108930291834</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44">
         <f t="shared" si="7"/>
-        <v>1.5611666666666668E-4</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="1"/>
-        <v>9.3343523809523816</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="4"/>
-        <v>286689.07502301864</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="8"/>
-        <v>3.2673027387764647E-5</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="5"/>
-        <v>10.672266929709922</v>
-      </c>
-      <c r="Q43">
-        <f>SUM($P$2,$O$2*A43,POWER(A43,2)*$N$2,POWER(A43,3)*$M$2)</f>
-        <v>2578.1823168138744</v>
-      </c>
-      <c r="R43">
-        <f t="shared" si="2"/>
-        <v>3600000000</v>
-      </c>
-      <c r="S43">
-        <f t="shared" si="9"/>
-        <v>7.204783333333334E-7</v>
-      </c>
-      <c r="T43">
-        <f t="shared" si="3"/>
-        <v>2764.7497599056005</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f t="shared" si="6"/>
         <v>70000</v>
       </c>
       <c r="B44">
         <v>10.782</v>
       </c>
       <c r="C44">
+        <v>10.955</v>
+      </c>
+      <c r="D44">
+        <v>9.6920000000000002</v>
+      </c>
+      <c r="E44">
+        <v>9.7439999999999998</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>10.476333333333335</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="12"/>
+        <v>1.4966190476190479E-4</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>11.927492383512543</v>
+      </c>
+      <c r="J44">
         <v>3534.1419999999998</v>
       </c>
-      <c r="D44">
-        <f t="shared" si="0"/>
-        <v>10.782</v>
-      </c>
-      <c r="E44">
+      <c r="K44">
+        <v>3811.4029999999998</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="4"/>
+        <v>3672.7725</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="2"/>
+        <v>339156.86280099797</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="9"/>
+        <v>3.0889344968025535E-5</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="6"/>
+        <v>12.515989991894557</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="3"/>
+        <v>4900000000</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="10"/>
+        <v>7.4954540816326534E-7</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="5"/>
+        <v>3892.9287155119437</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45">
         <f t="shared" si="7"/>
-        <v>1.5402857142857144E-4</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="1"/>
-        <v>10.890077777777778</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="4"/>
-        <v>339156.86280099797</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="8"/>
-        <v>3.1790599520689615E-5</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="5"/>
-        <v>12.625429031659598</v>
-      </c>
-      <c r="Q44">
-        <f>SUM($P$2,$O$2*A44,POWER(A44,2)*$N$2,POWER(A44,3)*$M$2)</f>
-        <v>3671.5070202274933</v>
-      </c>
-      <c r="R44">
-        <f t="shared" si="2"/>
-        <v>4900000000</v>
-      </c>
-      <c r="S44">
-        <f t="shared" si="9"/>
-        <v>7.2125346938775502E-7</v>
-      </c>
-      <c r="T44">
-        <f t="shared" si="3"/>
-        <v>3763.1316176492896</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f t="shared" si="6"/>
         <v>80000</v>
       </c>
       <c r="B45">
         <v>12.15</v>
       </c>
       <c r="C45">
+        <v>11.162000000000001</v>
+      </c>
+      <c r="D45">
+        <v>11.159000000000001</v>
+      </c>
+      <c r="E45">
+        <v>11.914999999999999</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>11.490333333333334</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="12"/>
+        <v>1.4362916666666668E-4</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>13.631419866871479</v>
+      </c>
+      <c r="J45">
         <v>4660.9250000000002</v>
       </c>
-      <c r="D45">
-        <f t="shared" si="0"/>
-        <v>12.15</v>
-      </c>
-      <c r="E45">
+      <c r="K45">
+        <v>5049.2349999999997</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="4"/>
+        <v>4855.08</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="2"/>
+        <v>392247.19895935548</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="9"/>
+        <v>2.9293602003577236E-5</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="6"/>
+        <v>14.475195860637971</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="3"/>
+        <v>6400000000</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="10"/>
+        <v>7.5860624999999994E-7</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="5"/>
+        <v>5084.641587607437</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46">
         <f t="shared" si="7"/>
-        <v>1.5187499999999999E-4</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="1"/>
-        <v>12.445803174603174</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="4"/>
-        <v>392247.19895935548</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="8"/>
-        <v>3.0975364597208965E-5</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="5"/>
-        <v>14.601766074933845</v>
-      </c>
-      <c r="Q45">
-        <f>SUM($P$2,$O$2*A45,POWER(A45,2)*$N$2,POWER(A45,3)*$M$2)</f>
-        <v>5007.7810242724609</v>
-      </c>
-      <c r="R45">
-        <f t="shared" si="2"/>
-        <v>6400000000</v>
-      </c>
-      <c r="S45">
-        <f t="shared" si="9"/>
-        <v>7.2826953125000007E-7</v>
-      </c>
-      <c r="T45">
-        <f t="shared" si="3"/>
-        <v>4915.110684276623</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f t="shared" si="6"/>
         <v>90000</v>
       </c>
       <c r="B46">
         <v>14.513999999999999</v>
       </c>
       <c r="C46">
+        <v>12.718999999999999</v>
+      </c>
+      <c r="D46">
+        <v>12.717000000000001</v>
+      </c>
+      <c r="E46">
+        <v>12.93</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>13.316666666666665</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="12"/>
+        <v>1.4796296296296294E-4</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>15.335347350230412</v>
+      </c>
+      <c r="J46">
         <v>5968.585</v>
       </c>
-      <c r="D46">
-        <f t="shared" si="0"/>
-        <v>14.513999999999999</v>
-      </c>
-      <c r="E46">
-        <f>D46/A46</f>
-        <v>1.6126666666666667E-4</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="1"/>
-        <v>14.001528571428572</v>
-      </c>
-      <c r="J46">
+      <c r="O46">
         <f t="shared" si="4"/>
+        <v>5968.585</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="2"/>
         <v>445881.82584953925</v>
       </c>
-      <c r="K46">
-        <f t="shared" si="8"/>
-        <v>3.2551225814926308E-5</v>
-      </c>
-      <c r="L46">
+      <c r="Q46">
+        <f t="shared" si="9"/>
+        <v>2.9865910415376096E-5</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="6"/>
+        <v>16.454487825519784</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="3"/>
+        <v>8100000000</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" ref="Y46" si="13">O46/X46</f>
+        <v>7.368623456790124E-7</v>
+      </c>
+      <c r="Z46">
         <f t="shared" si="5"/>
-        <v>16.598364845924614</v>
-      </c>
-      <c r="M46">
-        <f>MAX(K14:K46)</f>
-        <v>5.2546122718065325E-5</v>
-      </c>
-      <c r="Q46">
-        <f>SUM($P$2,$O$2*A46,POWER(A46,2)*$N$2,POWER(A46,3)*$M$2)</f>
-        <v>6607.0072424428909</v>
-      </c>
-      <c r="R46">
-        <f t="shared" si="2"/>
-        <v>8100000000</v>
-      </c>
-      <c r="S46">
-        <f t="shared" si="9"/>
-        <v>7.368623456790124E-7</v>
-      </c>
-      <c r="T46">
-        <f t="shared" si="3"/>
-        <v>6220.6869597876012</v>
+        <v>6435.2495093156622</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100000</v>
       </c>
       <c r="B47">
         <v>16.972999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>200000</v>
       </c>
       <c r="B48">
@@ -15330,7 +15621,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>300000</v>
       </c>
       <c r="B49">
@@ -15339,7 +15630,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>400000</v>
       </c>
       <c r="B50">
@@ -15348,7 +15639,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>500000</v>
       </c>
       <c r="B51">
@@ -15357,7 +15648,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>600000</v>
       </c>
       <c r="B52">
@@ -15366,7 +15657,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>700000</v>
       </c>
       <c r="B53">
@@ -15375,7 +15666,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800000</v>
       </c>
       <c r="B54">
@@ -15384,7 +15675,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>900000</v>
       </c>
       <c r="B55">
@@ -15393,7 +15684,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
       <c r="B56">
@@ -15402,7 +15693,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2000000</v>
       </c>
       <c r="B57">
@@ -15411,7 +15702,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3000000</v>
       </c>
       <c r="B58">
@@ -15420,7 +15711,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4000000</v>
       </c>
       <c r="B59">
@@ -15429,7 +15720,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5000000</v>
       </c>
       <c r="B60">
@@ -15438,7 +15729,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6000000</v>
       </c>
       <c r="B61">
@@ -15447,7 +15738,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7000000</v>
       </c>
       <c r="B62">
@@ -15456,7 +15747,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8000000</v>
       </c>
       <c r="B63">
@@ -15465,7 +15756,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9000000</v>
       </c>
       <c r="B64">
@@ -15474,7 +15765,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10000000</v>
       </c>
       <c r="B65">
@@ -15483,11 +15774,16 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20000000</v>
       </c>
       <c r="B66">
         <v>10833.733</v>
+      </c>
+    </row>
+    <row r="108" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V108" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\HGit\APaD\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -74,8 +69,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,25 +120,14 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -248,8 +232,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3A67-4529-8639-EE1ECE22EBE8}"/>
             </c:ext>
@@ -359,31 +342,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3A67-4529-8639-EE1ECE22EBE8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="315776704"/>
-        <c:axId val="315777032"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="107580416"/>
+        <c:axId val="107594880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="315776704"/>
+        <c:axId val="107580416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -411,8 +385,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -420,30 +392,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -478,19 +429,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315777032"/>
+        <c:crossAx val="107594880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="315777032"/>
+        <c:axId val="107594880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -537,8 +486,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -546,30 +493,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -598,7 +524,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315776704"/>
+        <c:crossAx val="107580416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -612,8 +538,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -644,7 +568,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -673,32 +596,20 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -820,7 +731,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$29</c:f>
+              <c:f>Sheet1!$O$2:$O$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -828,7 +739,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2E-3</c:v>
+                  <c:v>1.5E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1E-3</c:v>
@@ -837,10 +748,10 @@
                   <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2E-3</c:v>
+                  <c:v>2.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>2.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2E-3</c:v>
@@ -852,67 +763,66 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2E-3</c:v>
+                  <c:v>2.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9E-2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4E-2</c:v>
+                  <c:v>1.3000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2E-2</c:v>
+                  <c:v>1.2500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.1999999999999999E-2</c:v>
+                  <c:v>2.0499999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9E-2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.4E-2</c:v>
+                  <c:v>2.5500000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.1E-2</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.4999999999999998E-2</c:v>
+                  <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.16</c:v>
+                  <c:v>0.156</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.36399999999999999</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.51</c:v>
+                  <c:v>1.8085</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.90500000000000003</c:v>
+                  <c:v>0.53300000000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.40300000000000002</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.32200000000000001</c:v>
+                  <c:v>0.2555</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.375</c:v>
+                  <c:v>0.377</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.49</c:v>
+                  <c:v>0.50049999999999994</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.59099999999999997</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-11B3-4D81-BEF2-1F3C5021FDA1}"/>
             </c:ext>
@@ -1130,35 +1040,25 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-11B3-4D81-BEF2-1F3C5021FDA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="599120648"/>
-        <c:axId val="599121304"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="108513152"/>
+        <c:axId val="108514688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="599120648"/>
+        <c:axId val="108513152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1193,19 +1093,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599121304"/>
+        <c:crossAx val="108514688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="599121304"/>
+        <c:axId val="108514688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1223,7 +1121,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1252,7 +1149,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599120648"/>
+        <c:crossAx val="108513152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1267,7 +1164,6 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1298,7 +1194,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1327,32 +1222,20 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1444,60 +1327,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$29:$J$46</c:f>
+              <c:f>Sheet1!$O$29:$O$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.59099999999999997</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2200000000000002</c:v>
+                  <c:v>2.2210000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0620000000000003</c:v>
+                  <c:v>4.9775</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0960000000000001</c:v>
+                  <c:v>8.8940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.734999999999999</c:v>
+                  <c:v>13.609500000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.77</c:v>
+                  <c:v>19.602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.571000000000002</c:v>
+                  <c:v>26.5075</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.290999999999997</c:v>
+                  <c:v>35.003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44.189</c:v>
+                  <c:v>43.869</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>57.296999999999997</c:v>
+                  <c:v>56.3125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>247.00899999999999</c:v>
+                  <c:v>247.76400000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>578.91300000000001</c:v>
+                  <c:v>599.02199999999993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1045.4159999999999</c:v>
+                  <c:v>1104.5905</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1707.8040000000001</c:v>
+                  <c:v>1795.9155000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2593.7220000000002</c:v>
+                  <c:v>2684.4670000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3534.1419999999998</c:v>
+                  <c:v>3672.7725</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4660.9250000000002</c:v>
+                  <c:v>4855.08</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>5968.585</c:v>
@@ -1505,8 +1388,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B56C-42B8-8369-D6D466F83B10}"/>
             </c:ext>
@@ -1664,35 +1546,25 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B56C-42B8-8369-D6D466F83B10}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="599120648"/>
-        <c:axId val="599121304"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="108766336"/>
+        <c:axId val="108767872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="599120648"/>
+        <c:axId val="108766336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1727,19 +1599,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599121304"/>
+        <c:crossAx val="108767872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="599121304"/>
+        <c:axId val="108767872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1757,7 +1627,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1786,7 +1655,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599120648"/>
+        <c:crossAx val="108766336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1801,7 +1670,6 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1832,7 +1700,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1861,32 +1728,21 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1991,8 +1847,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EDCC-4C80-B0B7-58DF1AA061A0}"/>
             </c:ext>
@@ -2102,31 +1957,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EDCC-4C80-B0B7-58DF1AA061A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="315776704"/>
-        <c:axId val="315777032"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="108137472"/>
+        <c:axId val="108180608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="315776704"/>
+        <c:axId val="108137472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2154,8 +2000,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2163,30 +2007,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2221,19 +2044,1837 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315777032"/>
+        <c:crossAx val="108180608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="315777032"/>
+        <c:axId val="108180608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="108137472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$20:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$20:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.4333333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0333333333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4333333333333335E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29466666666666669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7333333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14566666666666669</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20866666666666664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E5E-472C-B705-1B37CB5EA041}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$20:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$20:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59099999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1E5E-472C-B705-1B37CB5EA041}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="108207104"/>
+        <c:axId val="108233856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="108207104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Array Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="108233856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="108233856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="108207104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.6997594050743666E-2"/>
+          <c:y val="7.407407407407407E-2"/>
+          <c:w val="0.66544619422572182"/>
+          <c:h val="0.79693212845038652"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$29:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$29:$F$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.20866666666666664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2576666666666669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2863333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51733333333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61833333333333329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71433333333333326</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80566666666666664</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0066666666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1053333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D36-48B3-833B-660C2BF4E34B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$29:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$29:$J$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.59099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0620000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.734999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.571000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.290999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.189</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.296999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6D36-48B3-833B-660C2BF4E34B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="108284928"/>
+        <c:axId val="108299392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="108284928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Array</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Length</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="108299392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="108299392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="108284928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11366426071741034"/>
+          <c:y val="7.407407407407407E-2"/>
+          <c:w val="0.64877952755905532"/>
+          <c:h val="0.77223024205307689"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$38:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$38:$F$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.1053333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4856666666666669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9343333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4236666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0283333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6013333333333328</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.476333333333335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.490333333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.316666666666665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-877B-4A30-8E93-BA020F155339}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$38:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$38:$J$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>57.296999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>247.00899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>578.91300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1045.4159999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1707.8040000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2593.7220000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3534.1419999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4660.9250000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5968.585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-877B-4A30-8E93-BA020F155339}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="108325888"/>
+        <c:axId val="107619456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="108325888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Array Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="107619456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="107619456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="108325888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11366426071741034"/>
+          <c:y val="7.407407407407407E-2"/>
+          <c:w val="0.64877952755905532"/>
+          <c:h val="0.77223024205307689"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$38:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$38:$F$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.1053333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4856666666666669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9343333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4236666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0283333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6013333333333328</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.476333333333335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.490333333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.316666666666665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9F4-450D-8528-34A11487E7E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="107648512"/>
+        <c:axId val="107650432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="107648512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Array Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="107650432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="107650432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2276,7 +3917,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2284,30 +3924,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2336,7 +3955,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315776704"/>
+        <c:crossAx val="107648512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2351,7 +3970,6 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2382,7 +4000,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2411,32 +4028,31 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.6997594050743666E-2"/>
+          <c:y val="7.407407407407407E-2"/>
+          <c:w val="0.66544619422572182"/>
+          <c:h val="0.79693212845038652"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2465,218 +4081,98 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$20:$A$29</c:f>
+              <c:f>Sheet1!$A$29:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$20:$F$29</c:f>
+              <c:f>Sheet1!$F$29:$F$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.4333333333333332E-2</c:v>
+                  <c:v>0.20866666666666664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0333333333333334E-2</c:v>
+                  <c:v>1.2576666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4333333333333335E-2</c:v>
+                  <c:v>1.2863333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2E-2</c:v>
+                  <c:v>0.59299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29466666666666669</c:v>
+                  <c:v>0.51733333333333331</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7333333333333332E-2</c:v>
+                  <c:v>0.61833333333333329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10666666666666667</c:v>
+                  <c:v>0.71433333333333326</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13</c:v>
+                  <c:v>0.80566666666666664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.14566666666666669</c:v>
+                  <c:v>1.0066666666666666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20866666666666664</c:v>
+                  <c:v>1.1053333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1E5E-472C-B705-1B37CB5EA041}"/>
+              <c16:uniqueId val="{00000000-AB90-4186-9DA2-F42141C04BA6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Selection</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$20:$A$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$J$20:$J$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4.4999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.36399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.51</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.90500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.40300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.32200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.59099999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1E5E-472C-B705-1B37CB5EA041}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="315776704"/>
-        <c:axId val="315777032"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="108437504"/>
+        <c:axId val="108439424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="315776704"/>
+        <c:axId val="108437504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2699,13 +4195,17 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Array Length</a:t>
+                  <a:t>Array</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Length</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2713,30 +4213,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2771,19 +4250,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315777032"/>
+        <c:crossAx val="108439424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="315777032"/>
+        <c:axId val="108439424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2826,7 +4303,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2834,30 +4310,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2886,7 +4341,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315776704"/>
+        <c:crossAx val="108437504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2901,7 +4356,6 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2932,7 +4386,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2961,42 +4414,20 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.6997594050743652E-2"/>
-          <c:y val="7.407407407407407E-2"/>
-          <c:w val="0.66544619422572182"/>
-          <c:h val="0.79693212845038663"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3025,86 +4456,193 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$29:$A$38</c:f>
+              <c:f>Sheet1!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$29:$F$38</c:f>
+              <c:f>Sheet1!$F$2:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
+                  <c:v>3.3333333333333332E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6666666666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6666666666666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6666666666666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3333333333333335E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0000000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.6666666666666671E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.6666666666666654E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.3333333333333341E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.3333333333333332E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.3333333333333341E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4333333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0333333333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.4333333333333335E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.29466666666666669</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.7333333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.10666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.14566666666666669</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0.20866666666666664</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2576666666666669</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2863333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.59299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.51733333333333331</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.61833333333333329</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.71433333333333326</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.80566666666666664</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0066666666666666</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1053333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6D36-48B3-833B-660C2BF4E34B}"/>
+              <c16:uniqueId val="{00000000-FA13-45C8-A55F-F7F2254D34C5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3113,11 +4651,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
+              <c:f>Sheet1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Selection</c:v>
+                  <c:v>Quick Formula</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3136,172 +4674,209 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$29:$A$38</c:f>
+              <c:f>Sheet1!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$29:$J$38</c:f>
+              <c:f>Sheet1!$R$2:$R$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>0.59099999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2200000000000002</c:v>
+                  <c:v>2.2217969478041558E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0620000000000003</c:v>
+                  <c:v>5.2821972697294605E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0960000000000001</c:v>
+                  <c:v>8.8871877912166233E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.734999999999999</c:v>
+                  <c:v>1.2897131885603649E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.77</c:v>
+                  <c:v>1.7229785382871386E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.571000000000002</c:v>
+                  <c:v>2.1830804090306954E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.290999999999997</c:v>
+                  <c:v>2.6661563373649866E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44.189</c:v>
+                  <c:v>3.1693183618376758E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>57.296999999999997</c:v>
+                  <c:v>3.6903248510228076E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.602446649849772E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6353171822797883E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3648487195307849E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1348756140717688E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.9371734489008232E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7663078047466617E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.6184162181832321E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.4906107277582035E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.3806497020456156E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6983096351895387E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.7424146375866307E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8409786599399087E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.9800380395831727E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.1513683595145079E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.3495352004626271E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5706760990014799E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.8119030936787296E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.11070974553068423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6D36-48B3-833B-660C2BF4E34B}"/>
+              <c16:uniqueId val="{00000001-FA13-45C8-A55F-F7F2254D34C5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="315776704"/>
-        <c:axId val="315777032"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="108691456"/>
+        <c:axId val="108692992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="315776704"/>
+        <c:axId val="108691456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Array</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> Length</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3336,19 +4911,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315777032"/>
+        <c:crossAx val="108692992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="315777032"/>
+        <c:axId val="108692992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3364,65 +4937,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Time (ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3451,7 +4967,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315776704"/>
+        <c:crossAx val="108691456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3466,7 +4982,6 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3497,7 +5012,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3526,42 +5040,20 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11366426071741031"/>
-          <c:y val="7.407407407407407E-2"/>
-          <c:w val="0.6487795275590551"/>
-          <c:h val="0.77223024205307667"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3590,35 +5082,62 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$38:$A$46</c:f>
+              <c:f>Sheet1!$A$29:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="10">
                   <c:v>20000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
                   <c:v>30000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="12">
                   <c:v>40000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>60000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="15">
                   <c:v>70000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="16">
                   <c:v>80000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="17">
                   <c:v>90000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3626,44 +5145,70 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$38:$F$46</c:f>
+              <c:f>Sheet1!$F$29:$F$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>0.20866666666666664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2576666666666669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2863333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51733333333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61833333333333329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71433333333333326</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80566666666666664</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0066666666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1.1053333333333333</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="10">
                   <c:v>2.4856666666666669</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
                   <c:v>3.9343333333333335</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="12">
                   <c:v>5.4236666666666666</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
                   <c:v>7.0283333333333333</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>8.6013333333333328</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="15">
                   <c:v>10.476333333333335</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="16">
                   <c:v>11.490333333333334</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="17">
                   <c:v>13.316666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-877B-4A30-8E93-BA020F155339}"/>
+              <c16:uniqueId val="{00000000-BADF-4637-825A-E9A91B133DC4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3672,11 +5217,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
+              <c:f>Sheet1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Selection</c:v>
+                  <c:v>Quick Formula</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3695,35 +5240,62 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$38:$A$46</c:f>
+              <c:f>Sheet1!$A$29:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="10">
                   <c:v>20000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
                   <c:v>30000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="12">
                   <c:v>40000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>60000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="15">
                   <c:v>70000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="16">
                   <c:v>80000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="17">
                   <c:v>90000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3731,125 +5303,86 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$38:$J$46</c:f>
+              <c:f>Sheet1!$R$29:$R$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>57.296999999999997</c:v>
+                  <c:v>0.11070974553068423</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>247.00899999999999</c:v>
+                  <c:v>0.24363746053941002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>578.91300000000001</c:v>
+                  <c:v>0.38495120928934734</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1045.4159999999999</c:v>
+                  <c:v>0.5317108600349032</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1707.8040000000001</c:v>
+                  <c:v>0.68252004650945763</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2593.7220000000002</c:v>
+                  <c:v>0.83655632701281923</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3534.1419999999998</c:v>
+                  <c:v>0.99327625961785915</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4660.9250000000002</c:v>
+                  <c:v>1.1522935979819726</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5968.585</c:v>
+                  <c:v>1.3133195459599256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.476129940409123</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1744395755986621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9566095482003156</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.7932385407581553</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.6703628906059791</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.579758180741878</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.515989991894557</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.475195860637971</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.454487825519784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-877B-4A30-8E93-BA020F155339}"/>
+              <c16:uniqueId val="{00000001-BADF-4637-825A-E9A91B133DC4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="315776704"/>
-        <c:axId val="315777032"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="108464768"/>
+        <c:axId val="108478848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="315776704"/>
+        <c:axId val="108464768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Array Length</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3884,19 +5417,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315777032"/>
+        <c:crossAx val="108478848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="315777032"/>
+        <c:axId val="108478848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3912,65 +5443,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Time (ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3999,7 +5473,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315776704"/>
+        <c:crossAx val="108464768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4014,7 +5488,6 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4045,7 +5518,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4074,2092 +5546,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11366426071741031"/>
-          <c:y val="7.407407407407407E-2"/>
-          <c:w val="0.6487795275590551"/>
-          <c:h val="0.77223024205307667"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quick</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$38:$A$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$38:$F$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.1053333333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.4856666666666669</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.9343333333333335</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.4236666666666666</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0283333333333333</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.6013333333333328</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.476333333333335</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.490333333333334</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.316666666666665</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C9F4-450D-8528-34A11487E7E9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="315776704"/>
-        <c:axId val="315777032"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="315776704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Array Length</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="315777032"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="315777032"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Time (ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="315776704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.6997594050743652E-2"/>
-          <c:y val="7.407407407407407E-2"/>
-          <c:w val="0.66544619422572182"/>
-          <c:h val="0.79693212845038663"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quick</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$29:$A$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$29:$F$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.20866666666666664</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2576666666666669</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2863333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.59299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.51733333333333331</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.61833333333333329</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.71433333333333326</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.80566666666666664</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0066666666666666</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1053333333333333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AB90-4186-9DA2-F42141C04BA6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="315776704"/>
-        <c:axId val="315777032"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="315776704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Array</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> Length</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="315777032"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="315777032"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Time (ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="315776704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quick</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9.8000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.9000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.6000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.121</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.13400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.16500000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FA13-45C8-A55F-F7F2254D34C5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quick Formula</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$R$2:$R$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2217969478041558E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.2821972697294605E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.8871877912166233E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2897131885603649E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7229785382871386E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.1830804090306954E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.6661563373649866E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.1693183618376758E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.6903248510228076E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.602446649849772E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6353171822797883E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.3648487195307849E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.1348756140717688E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.9371734489008232E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.7663078047466617E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.6184162181832321E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.4906107277582035E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.3806497020456156E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.6983096351895387E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.7424146375866307E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.8409786599399087E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.9800380395831727E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.1513683595145079E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.3495352004626271E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8.5706760990014799E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9.8119030936787296E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.11070974553068423</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FA13-45C8-A55F-F7F2254D34C5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="599120648"/>
-        <c:axId val="599121304"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="599120648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="599121304"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="599121304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="599120648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quick</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$29:$A$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$29:$B$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0.16500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0569999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5549999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.71399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.48299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.59899999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.748</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.81899999999999995</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1579999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.214</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.6930000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.53</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.0540000000000003</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.9219999999999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.3670000000000009</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10.782</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12.15</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>14.513999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BADF-4637-825A-E9A91B133DC4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quick Formula</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$29:$A$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$R$29:$R$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0.11070974553068423</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.24363746053941002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.38495120928934734</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5317108600349032</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.68252004650945763</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.83655632701281923</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.99327625961785915</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1522935979819726</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.3133195459599256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.476129940409123</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.1744395755986621</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.9566095482003156</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.7932385407581553</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.6703628906059791</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10.579758180741878</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12.515989991894557</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14.475195860637971</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>16.454487825519784</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BADF-4637-825A-E9A91B133DC4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="599120648"/>
-        <c:axId val="599121304"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="599120648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="599121304"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="599121304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="599120648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12677,7 +12064,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -12712,7 +12099,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -12889,27 +12276,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="B90" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M98" sqref="M98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="18" max="21" width="12" bestFit="1" customWidth="1"/>
     <col min="23" max="26" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -12961,7 +12348,7 @@
         <v>7.9447524806366202E-7</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13000,7 +12387,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P46" si="2">A2*LOG10(A2)</f>
+        <f>A2*LOG10(A2)</f>
         <v>0</v>
       </c>
       <c r="R2">
@@ -13008,7 +12395,7 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <f t="shared" ref="X2:X46" si="3">A2^2</f>
+        <f t="shared" ref="X2:X46" si="2">A2^2</f>
         <v>1</v>
       </c>
       <c r="Z2">
@@ -13016,7 +12403,7 @@
         <v>7.9447524806366202E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13047,11 +12434,11 @@
         <v>1E-3</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O46" si="4">AVERAGE(J3:N3)</f>
+        <f t="shared" ref="O3:O46" si="3">AVERAGE(J3:N3)</f>
         <v>1.5E-3</v>
       </c>
       <c r="P3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="P2:P46" si="4">A3*LOG10(A3)</f>
         <v>0.6020599913279624</v>
       </c>
       <c r="R3">
@@ -13063,7 +12450,7 @@
         <v>5.9114388057823495E-5</v>
       </c>
       <c r="X3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="Z3">
@@ -13075,7 +12462,7 @@
         <v>4.3333333333333331E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13106,11 +12493,11 @@
         <v>1E-3</v>
       </c>
       <c r="O4">
+        <f t="shared" si="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="P4">
         <f t="shared" si="4"/>
-        <v>1E-3</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="2"/>
         <v>1.4313637641589874</v>
       </c>
       <c r="R4">
@@ -13118,7 +12505,7 @@
         <v>5.2821972697294605E-5</v>
       </c>
       <c r="X4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="Z4">
@@ -13126,7 +12513,7 @@
         <v>7.150277232572958E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13157,11 +12544,11 @@
         <v>1E-3</v>
       </c>
       <c r="O5">
+        <f t="shared" si="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="P5">
         <f t="shared" si="4"/>
-        <v>1E-3</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="2"/>
         <v>2.4082399653118496</v>
       </c>
       <c r="R5">
@@ -13169,7 +12556,7 @@
         <v>8.8871877912166233E-5</v>
       </c>
       <c r="X5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="Z5">
@@ -13177,7 +12564,7 @@
         <v>1.2711603969018592E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13208,11 +12595,11 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="O6">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="P6">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="2"/>
         <v>3.4948500216800942</v>
       </c>
       <c r="R6">
@@ -13220,7 +12607,7 @@
         <v>1.2897131885603649E-4</v>
       </c>
       <c r="X6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="Z6">
@@ -13228,7 +12615,7 @@
         <v>1.9861881201591549E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13259,11 +12646,11 @@
         <v>2E-3</v>
       </c>
       <c r="O7">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="2"/>
         <v>4.6689075023018614</v>
       </c>
       <c r="R7">
@@ -13271,7 +12658,7 @@
         <v>1.7229785382871386E-4</v>
       </c>
       <c r="X7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="Z7">
@@ -13279,7 +12666,7 @@
         <v>2.8601108930291832E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13310,11 +12697,11 @@
         <v>2E-3</v>
       </c>
       <c r="O8">
+        <f t="shared" si="3"/>
+        <v>2E-3</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="4"/>
-        <v>2E-3</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="2"/>
         <v>5.9156862800997976</v>
       </c>
       <c r="R8">
@@ -13322,7 +12709,7 @@
         <v>2.1830804090306954E-4</v>
       </c>
       <c r="X8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="Z8">
@@ -13330,7 +12717,7 @@
         <v>3.8929287155119439E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13361,11 +12748,11 @@
         <v>2E-3</v>
       </c>
       <c r="O9">
+        <f t="shared" si="3"/>
+        <v>2E-3</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="4"/>
-        <v>2E-3</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="2"/>
         <v>7.2247198959355483</v>
       </c>
       <c r="R9">
@@ -13373,7 +12760,7 @@
         <v>2.6661563373649866E-4</v>
       </c>
       <c r="X9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="Z9">
@@ -13381,7 +12768,7 @@
         <v>5.0846415876074369E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13412,11 +12799,11 @@
         <v>2E-3</v>
       </c>
       <c r="O10">
+        <f t="shared" si="3"/>
+        <v>2E-3</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="4"/>
-        <v>2E-3</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="2"/>
         <v>8.5881825849539233</v>
       </c>
       <c r="R10">
@@ -13424,7 +12811,7 @@
         <v>3.1693183618376758E-4</v>
       </c>
       <c r="X10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="Z10">
@@ -13432,7 +12819,7 @@
         <v>6.4352495093156627E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27">
       <c r="A11">
         <f>A2*10</f>
         <v>10</v>
@@ -13464,11 +12851,11 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="O11">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="R11">
@@ -13476,7 +12863,7 @@
         <v>3.6903248510228076E-4</v>
       </c>
       <c r="X11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="Z11">
@@ -13484,7 +12871,7 @@
         <v>7.9447524806366198E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27">
       <c r="A12">
         <f t="shared" ref="A12:A66" si="7">A3*10</f>
         <v>20</v>
@@ -13516,11 +12903,11 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="O12">
+        <f t="shared" si="3"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="4"/>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="2"/>
         <v>26.020599913279625</v>
       </c>
       <c r="R12">
@@ -13528,7 +12915,7 @@
         <v>9.602446649849772E-4</v>
       </c>
       <c r="X12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
       <c r="Z12">
@@ -13536,7 +12923,7 @@
         <v>3.1779009922546479E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27">
       <c r="A13">
         <f t="shared" si="7"/>
         <v>30</v>
@@ -13568,11 +12955,11 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="O13">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="4"/>
-        <v>0.02</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="2"/>
         <v>44.313637641589871</v>
       </c>
       <c r="R13">
@@ -13580,7 +12967,7 @@
         <v>1.6353171822797883E-3</v>
       </c>
       <c r="X13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>900</v>
       </c>
       <c r="Z13">
@@ -13588,7 +12975,7 @@
         <v>7.1502772325729577E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27">
       <c r="A14">
         <f t="shared" si="7"/>
         <v>40</v>
@@ -13624,11 +13011,11 @@
         <v>1.2E-2</v>
       </c>
       <c r="O14">
+        <f t="shared" si="3"/>
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="4"/>
-        <v>1.3000000000000001E-2</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="2"/>
         <v>64.082399653118486</v>
       </c>
       <c r="R14">
@@ -13636,7 +13023,7 @@
         <v>2.3648487195307849E-3</v>
       </c>
       <c r="X14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1600</v>
       </c>
       <c r="Z14">
@@ -13644,7 +13031,7 @@
         <v>1.2711603969018592E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27">
       <c r="A15">
         <f t="shared" si="7"/>
         <v>50</v>
@@ -13680,11 +13067,11 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="O15">
+        <f t="shared" si="3"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="P15">
         <f t="shared" si="4"/>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="2"/>
         <v>84.948500216800937</v>
       </c>
       <c r="R15">
@@ -13692,7 +13079,7 @@
         <v>3.1348756140717688E-3</v>
       </c>
       <c r="X15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2500</v>
       </c>
       <c r="Z15">
@@ -13700,7 +13087,7 @@
         <v>1.986188120159155E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27">
       <c r="A16">
         <f t="shared" si="7"/>
         <v>60</v>
@@ -13736,11 +13123,11 @@
         <v>1.9E-2</v>
       </c>
       <c r="O16">
+        <f t="shared" si="3"/>
+        <v>2.0499999999999997E-2</v>
+      </c>
+      <c r="P16">
         <f t="shared" si="4"/>
-        <v>2.0499999999999997E-2</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="2"/>
         <v>106.68907502301862</v>
       </c>
       <c r="R16">
@@ -13748,7 +13135,7 @@
         <v>3.9371734489008232E-3</v>
       </c>
       <c r="X16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3600</v>
       </c>
       <c r="Z16">
@@ -13756,7 +13143,7 @@
         <v>2.8601108930291831E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="A17">
         <f t="shared" si="7"/>
         <v>70</v>
@@ -13792,11 +13179,11 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="O17">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="P17">
         <f t="shared" si="4"/>
-        <v>0.02</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="2"/>
         <v>129.156862800998</v>
       </c>
       <c r="R17">
@@ -13804,7 +13191,7 @@
         <v>4.7663078047466617E-3</v>
       </c>
       <c r="X17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4900</v>
       </c>
       <c r="Z17">
@@ -13812,7 +13199,7 @@
         <v>3.8929287155119439E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26">
       <c r="A18">
         <f t="shared" si="7"/>
         <v>80</v>
@@ -13848,11 +13235,11 @@
         <v>2.7E-2</v>
       </c>
       <c r="O18">
+        <f t="shared" si="3"/>
+        <v>2.5500000000000002E-2</v>
+      </c>
+      <c r="P18">
         <f t="shared" si="4"/>
-        <v>2.5500000000000002E-2</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="2"/>
         <v>152.24719895935547</v>
       </c>
       <c r="Q18">
@@ -13864,7 +13251,7 @@
         <v>5.6184162181832321E-3</v>
       </c>
       <c r="X18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6400</v>
       </c>
       <c r="Z18">
@@ -13872,7 +13259,7 @@
         <v>5.0846415876074367E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26">
       <c r="A19">
         <f t="shared" si="7"/>
         <v>90</v>
@@ -13908,11 +13295,11 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="O19">
+        <f t="shared" si="3"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="P19">
         <f t="shared" si="4"/>
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="2"/>
         <v>175.88182584953924</v>
       </c>
       <c r="Q19">
@@ -13924,7 +13311,7 @@
         <v>6.4906107277582035E-3</v>
       </c>
       <c r="X19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8100</v>
       </c>
       <c r="Z19">
@@ -13932,7 +13319,7 @@
         <v>6.4352495093156622E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="A20">
         <f t="shared" si="7"/>
         <v>100</v>
@@ -13968,11 +13355,11 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="O20">
+        <f t="shared" si="3"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="P20">
         <f t="shared" si="4"/>
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="R20">
@@ -13980,7 +13367,7 @@
         <v>7.3806497020456156E-3</v>
       </c>
       <c r="X20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="Z20">
@@ -13988,7 +13375,7 @@
         <v>7.9447524806366202E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26">
       <c r="A21">
         <f t="shared" si="7"/>
         <v>200</v>
@@ -14024,11 +13411,11 @@
         <v>0.152</v>
       </c>
       <c r="O21">
+        <f t="shared" si="3"/>
+        <v>0.156</v>
+      </c>
+      <c r="P21">
         <f t="shared" si="4"/>
-        <v>0.156</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="2"/>
         <v>460.20599913279625</v>
       </c>
       <c r="R21">
@@ -14036,7 +13423,7 @@
         <v>1.6983096351895387E-2</v>
       </c>
       <c r="X21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40000</v>
       </c>
       <c r="Z21">
@@ -14044,7 +13431,7 @@
         <v>3.1779009922546481E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26">
       <c r="A22">
         <f t="shared" si="7"/>
         <v>300</v>
@@ -14076,11 +13463,11 @@
         <v>0.41599999999999998</v>
       </c>
       <c r="O22">
+        <f t="shared" si="3"/>
+        <v>0.39</v>
+      </c>
+      <c r="P22">
         <f t="shared" si="4"/>
-        <v>0.39</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="2"/>
         <v>743.13637641589878</v>
       </c>
       <c r="R22">
@@ -14088,11 +13475,11 @@
         <v>2.7424146375866307E-2</v>
       </c>
       <c r="X22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90000</v>
       </c>
       <c r="Y22">
-        <f t="shared" ref="Y15:Y45" si="10">O22/X22</f>
+        <f t="shared" ref="Y22:Y45" si="10">O22/X22</f>
         <v>4.3333333333333331E-6</v>
       </c>
       <c r="Z22">
@@ -14100,7 +13487,7 @@
         <v>7.1502772325729588E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26">
       <c r="A23">
         <f t="shared" si="7"/>
         <v>400</v>
@@ -14136,11 +13523,11 @@
         <v>2.1070000000000002</v>
       </c>
       <c r="O23">
+        <f t="shared" si="3"/>
+        <v>1.8085</v>
+      </c>
+      <c r="P23">
         <f t="shared" si="4"/>
-        <v>1.8085</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="2"/>
         <v>1040.823996531185</v>
       </c>
       <c r="R23">
@@ -14148,7 +13535,7 @@
         <v>3.8409786599399087E-2</v>
       </c>
       <c r="X23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160000</v>
       </c>
       <c r="Z23">
@@ -14156,7 +13543,7 @@
         <v>0.12711603969018592</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26">
       <c r="A24">
         <f t="shared" si="7"/>
         <v>500</v>
@@ -14192,11 +13579,11 @@
         <v>0.161</v>
       </c>
       <c r="O24">
+        <f t="shared" si="3"/>
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="P24">
         <f t="shared" si="4"/>
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="2"/>
         <v>1349.4850021680095</v>
       </c>
       <c r="R24">
@@ -14204,7 +13591,7 @@
         <v>4.9800380395831727E-2</v>
       </c>
       <c r="X24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250000</v>
       </c>
       <c r="Z24">
@@ -14212,7 +13599,7 @@
         <v>0.1986188120159155</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26">
       <c r="A25">
         <f t="shared" si="7"/>
         <v>600</v>
@@ -14248,11 +13635,11 @@
         <v>0.217</v>
       </c>
       <c r="O25">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
+      </c>
+      <c r="P25">
         <f t="shared" si="4"/>
-        <v>0.31</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="2"/>
         <v>1666.8907502301861</v>
       </c>
       <c r="Q25">
@@ -14264,7 +13651,7 @@
         <v>6.1513683595145079E-2</v>
       </c>
       <c r="X25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>360000</v>
       </c>
       <c r="Y25">
@@ -14276,7 +13663,7 @@
         <v>0.28601108930291835</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26">
       <c r="A26">
         <f t="shared" si="7"/>
         <v>700</v>
@@ -14312,11 +13699,11 @@
         <v>0.189</v>
       </c>
       <c r="O26">
+        <f t="shared" si="3"/>
+        <v>0.2555</v>
+      </c>
+      <c r="P26">
         <f t="shared" si="4"/>
-        <v>0.2555</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="2"/>
         <v>1991.5686280099799</v>
       </c>
       <c r="Q26">
@@ -14328,7 +13715,7 @@
         <v>7.3495352004626271E-2</v>
       </c>
       <c r="X26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>490000</v>
       </c>
       <c r="Y26">
@@ -14340,7 +13727,7 @@
         <v>0.38929287155119441</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26">
       <c r="A27">
         <f t="shared" si="7"/>
         <v>800</v>
@@ -14376,11 +13763,11 @@
         <v>0.379</v>
       </c>
       <c r="O27">
+        <f t="shared" si="3"/>
+        <v>0.377</v>
+      </c>
+      <c r="P27">
         <f t="shared" si="4"/>
-        <v>0.377</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="2"/>
         <v>2322.471989593555</v>
       </c>
       <c r="Q27">
@@ -14392,7 +13779,7 @@
         <v>8.5706760990014799E-2</v>
       </c>
       <c r="X27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>640000</v>
       </c>
       <c r="Y27">
@@ -14404,7 +13791,7 @@
         <v>0.50846415876074369</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26">
       <c r="A28">
         <f t="shared" si="7"/>
         <v>900</v>
@@ -14440,11 +13827,11 @@
         <v>0.51100000000000001</v>
       </c>
       <c r="O28">
+        <f t="shared" si="3"/>
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="P28">
         <f t="shared" si="4"/>
-        <v>0.50049999999999994</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="2"/>
         <v>2658.8182584953925</v>
       </c>
       <c r="Q28">
@@ -14456,7 +13843,7 @@
         <v>9.8119030936787296E-2</v>
       </c>
       <c r="X28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>810000</v>
       </c>
       <c r="Y28">
@@ -14468,7 +13855,7 @@
         <v>0.64352495093156625</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26">
       <c r="A29">
         <f t="shared" si="7"/>
         <v>1000</v>
@@ -14504,11 +13891,11 @@
         <v>0.84899999999999998</v>
       </c>
       <c r="O29">
+        <f t="shared" si="3"/>
+        <v>0.72</v>
+      </c>
+      <c r="P29">
         <f t="shared" si="4"/>
-        <v>0.72</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="R29">
@@ -14516,7 +13903,7 @@
         <v>0.11070974553068423</v>
       </c>
       <c r="X29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
       <c r="Y29">
@@ -14528,7 +13915,7 @@
         <v>0.79447524806366199</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26">
       <c r="A30">
         <f t="shared" si="7"/>
         <v>2000</v>
@@ -14564,11 +13951,11 @@
         <v>2.222</v>
       </c>
       <c r="O30">
+        <f t="shared" si="3"/>
+        <v>2.2210000000000001</v>
+      </c>
+      <c r="P30">
         <f t="shared" si="4"/>
-        <v>2.2210000000000001</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="2"/>
         <v>6602.0599913279621</v>
       </c>
       <c r="R30">
@@ -14576,7 +13963,7 @@
         <v>0.24363746053941002</v>
       </c>
       <c r="X30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4000000</v>
       </c>
       <c r="Y30">
@@ -14588,7 +13975,7 @@
         <v>3.1779009922546479</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26">
       <c r="A31">
         <f t="shared" si="7"/>
         <v>3000</v>
@@ -14620,11 +14007,11 @@
         <v>4.8929999999999998</v>
       </c>
       <c r="O31">
+        <f t="shared" si="3"/>
+        <v>4.9775</v>
+      </c>
+      <c r="P31">
         <f t="shared" si="4"/>
-        <v>4.9775</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="2"/>
         <v>10431.363764158988</v>
       </c>
       <c r="R31">
@@ -14632,7 +14019,7 @@
         <v>0.38495120928934734</v>
       </c>
       <c r="X31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9000000</v>
       </c>
       <c r="Y31">
@@ -14644,7 +14031,7 @@
         <v>7.1502772325729582</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26">
       <c r="A32">
         <f t="shared" si="7"/>
         <v>4000</v>
@@ -14680,11 +14067,11 @@
         <v>8.6920000000000002</v>
       </c>
       <c r="O32">
+        <f t="shared" si="3"/>
+        <v>8.8940000000000001</v>
+      </c>
+      <c r="P32">
         <f t="shared" si="4"/>
-        <v>8.8940000000000001</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="2"/>
         <v>14408.23996531185</v>
       </c>
       <c r="Q32">
@@ -14696,7 +14083,7 @@
         <v>0.5317108600349032</v>
       </c>
       <c r="X32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16000000</v>
       </c>
       <c r="Y32">
@@ -14708,7 +14095,7 @@
         <v>12.711603969018592</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26">
       <c r="A33">
         <f t="shared" si="7"/>
         <v>5000</v>
@@ -14744,11 +14131,11 @@
         <v>13.484</v>
       </c>
       <c r="O33">
+        <f t="shared" si="3"/>
+        <v>13.609500000000001</v>
+      </c>
+      <c r="P33">
         <f t="shared" si="4"/>
-        <v>13.609500000000001</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="2"/>
         <v>18494.850021680093</v>
       </c>
       <c r="Q33">
@@ -14760,7 +14147,7 @@
         <v>0.68252004650945763</v>
       </c>
       <c r="X33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25000000</v>
       </c>
       <c r="Y33">
@@ -14772,7 +14159,7 @@
         <v>19.861881201591551</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26">
       <c r="A34">
         <f t="shared" si="7"/>
         <v>6000</v>
@@ -14808,11 +14195,11 @@
         <v>19.434000000000001</v>
       </c>
       <c r="O34">
+        <f t="shared" si="3"/>
+        <v>19.602</v>
+      </c>
+      <c r="P34">
         <f t="shared" si="4"/>
-        <v>19.602</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="2"/>
         <v>22668.907502301859</v>
       </c>
       <c r="Q34">
@@ -14824,7 +14211,7 @@
         <v>0.83655632701281923</v>
       </c>
       <c r="X34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36000000</v>
       </c>
       <c r="Y34">
@@ -14836,7 +14223,7 @@
         <v>28.601108930291833</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26">
       <c r="A35">
         <f t="shared" si="7"/>
         <v>7000</v>
@@ -14872,11 +14259,11 @@
         <v>26.443999999999999</v>
       </c>
       <c r="O35">
+        <f t="shared" si="3"/>
+        <v>26.5075</v>
+      </c>
+      <c r="P35">
         <f t="shared" si="4"/>
-        <v>26.5075</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="2"/>
         <v>26915.686280099799</v>
       </c>
       <c r="Q35">
@@ -14888,7 +14275,7 @@
         <v>0.99327625961785915</v>
       </c>
       <c r="X35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>49000000</v>
       </c>
       <c r="Y35">
@@ -14900,7 +14287,7 @@
         <v>38.929287155119439</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26">
       <c r="A36">
         <f t="shared" si="7"/>
         <v>8000</v>
@@ -14936,11 +14323,11 @@
         <v>35.715000000000003</v>
       </c>
       <c r="O36">
+        <f t="shared" si="3"/>
+        <v>35.003</v>
+      </c>
+      <c r="P36">
         <f t="shared" si="4"/>
-        <v>35.003</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="2"/>
         <v>31224.719895935552</v>
       </c>
       <c r="Q36">
@@ -14952,7 +14339,7 @@
         <v>1.1522935979819726</v>
       </c>
       <c r="X36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>64000000</v>
       </c>
       <c r="Y36">
@@ -14964,7 +14351,7 @@
         <v>50.846415876074367</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26">
       <c r="A37">
         <f t="shared" si="7"/>
         <v>9000</v>
@@ -15000,11 +14387,11 @@
         <v>43.548999999999999</v>
       </c>
       <c r="O37">
+        <f t="shared" si="3"/>
+        <v>43.869</v>
+      </c>
+      <c r="P37">
         <f t="shared" si="4"/>
-        <v>43.869</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="2"/>
         <v>35588.182584953924</v>
       </c>
       <c r="Q37">
@@ -15016,7 +14403,7 @@
         <v>1.3133195459599256</v>
       </c>
       <c r="X37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>81000000</v>
       </c>
       <c r="Y37">
@@ -15028,7 +14415,7 @@
         <v>64.35249509315662</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26">
       <c r="A38">
         <f t="shared" si="7"/>
         <v>10000</v>
@@ -15064,11 +14451,11 @@
         <v>55.328000000000003</v>
       </c>
       <c r="O38">
+        <f t="shared" si="3"/>
+        <v>56.3125</v>
+      </c>
+      <c r="P38">
         <f t="shared" si="4"/>
-        <v>56.3125</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="2"/>
         <v>40000</v>
       </c>
       <c r="Q38">
@@ -15080,7 +14467,7 @@
         <v>1.476129940409123</v>
       </c>
       <c r="X38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100000000</v>
       </c>
       <c r="Y38">
@@ -15092,7 +14479,7 @@
         <v>79.447524806366204</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26">
       <c r="A39">
         <f t="shared" si="7"/>
         <v>20000</v>
@@ -15128,11 +14515,11 @@
         <v>248.51900000000001</v>
       </c>
       <c r="O39">
+        <f t="shared" si="3"/>
+        <v>247.76400000000001</v>
+      </c>
+      <c r="P39">
         <f t="shared" si="4"/>
-        <v>247.76400000000001</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="2"/>
         <v>86020.599913279628</v>
       </c>
       <c r="Q39">
@@ -15144,7 +14531,7 @@
         <v>3.1744395755986621</v>
       </c>
       <c r="X39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>400000000</v>
       </c>
       <c r="Y39">
@@ -15156,7 +14543,7 @@
         <v>317.79009922546481</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26">
       <c r="A40">
         <f t="shared" si="7"/>
         <v>30000</v>
@@ -15192,11 +14579,11 @@
         <v>619.13099999999997</v>
       </c>
       <c r="O40">
+        <f t="shared" si="3"/>
+        <v>599.02199999999993</v>
+      </c>
+      <c r="P40">
         <f t="shared" si="4"/>
-        <v>599.02199999999993</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="2"/>
         <v>134313.63764158988</v>
       </c>
       <c r="Q40">
@@ -15208,7 +14595,7 @@
         <v>4.9566095482003156</v>
       </c>
       <c r="X40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>900000000</v>
       </c>
       <c r="Y40">
@@ -15220,7 +14607,7 @@
         <v>715.02772325729586</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26">
       <c r="A41">
         <f t="shared" si="7"/>
         <v>40000</v>
@@ -15256,11 +14643,11 @@
         <v>1163.7650000000001</v>
       </c>
       <c r="O41">
+        <f t="shared" si="3"/>
+        <v>1104.5905</v>
+      </c>
+      <c r="P41">
         <f t="shared" si="4"/>
-        <v>1104.5905</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="2"/>
         <v>184082.39965311851</v>
       </c>
       <c r="Q41">
@@ -15272,7 +14659,7 @@
         <v>6.7932385407581553</v>
       </c>
       <c r="X41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1600000000</v>
       </c>
       <c r="Y41">
@@ -15284,7 +14671,7 @@
         <v>1271.1603969018593</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26">
       <c r="A42">
         <f t="shared" si="7"/>
         <v>50000</v>
@@ -15320,11 +14707,11 @@
         <v>1884.027</v>
       </c>
       <c r="O42">
+        <f t="shared" si="3"/>
+        <v>1795.9155000000001</v>
+      </c>
+      <c r="P42">
         <f t="shared" si="4"/>
-        <v>1795.9155000000001</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="2"/>
         <v>234948.50021680092</v>
       </c>
       <c r="Q42">
@@ -15336,7 +14723,7 @@
         <v>8.6703628906059791</v>
       </c>
       <c r="X42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2500000000</v>
       </c>
       <c r="Y42">
@@ -15348,7 +14735,7 @@
         <v>1986.188120159155</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26">
       <c r="A43">
         <f t="shared" si="7"/>
         <v>60000</v>
@@ -15384,11 +14771,11 @@
         <v>2775.212</v>
       </c>
       <c r="O43">
+        <f t="shared" si="3"/>
+        <v>2684.4670000000001</v>
+      </c>
+      <c r="P43">
         <f t="shared" si="4"/>
-        <v>2684.4670000000001</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="2"/>
         <v>286689.07502301864</v>
       </c>
       <c r="Q43">
@@ -15400,7 +14787,7 @@
         <v>10.579758180741878</v>
       </c>
       <c r="X43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3600000000</v>
       </c>
       <c r="Y43">
@@ -15412,7 +14799,7 @@
         <v>2860.1108930291834</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26">
       <c r="A44">
         <f t="shared" si="7"/>
         <v>70000</v>
@@ -15448,11 +14835,11 @@
         <v>3811.4029999999998</v>
       </c>
       <c r="O44">
+        <f t="shared" si="3"/>
+        <v>3672.7725</v>
+      </c>
+      <c r="P44">
         <f t="shared" si="4"/>
-        <v>3672.7725</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="2"/>
         <v>339156.86280099797</v>
       </c>
       <c r="Q44">
@@ -15464,7 +14851,7 @@
         <v>12.515989991894557</v>
       </c>
       <c r="X44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4900000000</v>
       </c>
       <c r="Y44">
@@ -15476,7 +14863,7 @@
         <v>3892.9287155119437</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26">
       <c r="A45">
         <f t="shared" si="7"/>
         <v>80000</v>
@@ -15512,11 +14899,11 @@
         <v>5049.2349999999997</v>
       </c>
       <c r="O45">
+        <f t="shared" si="3"/>
+        <v>4855.08</v>
+      </c>
+      <c r="P45">
         <f t="shared" si="4"/>
-        <v>4855.08</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="2"/>
         <v>392247.19895935548</v>
       </c>
       <c r="Q45">
@@ -15528,7 +14915,7 @@
         <v>14.475195860637971</v>
       </c>
       <c r="X45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6400000000</v>
       </c>
       <c r="Y45">
@@ -15540,7 +14927,7 @@
         <v>5084.641587607437</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26">
       <c r="A46">
         <f t="shared" si="7"/>
         <v>90000</v>
@@ -15573,11 +14960,11 @@
         <v>5968.585</v>
       </c>
       <c r="O46">
+        <f t="shared" si="3"/>
+        <v>5968.585</v>
+      </c>
+      <c r="P46">
         <f t="shared" si="4"/>
-        <v>5968.585</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="2"/>
         <v>445881.82584953925</v>
       </c>
       <c r="Q46">
@@ -15589,7 +14976,7 @@
         <v>16.454487825519784</v>
       </c>
       <c r="X46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8100000000</v>
       </c>
       <c r="Y46">
@@ -15601,7 +14988,7 @@
         <v>6435.2495093156622</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26">
       <c r="A47">
         <f t="shared" si="7"/>
         <v>100000</v>
@@ -15610,7 +14997,7 @@
         <v>16.972999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26">
       <c r="A48">
         <f t="shared" si="7"/>
         <v>200000</v>
@@ -15619,7 +15006,7 @@
         <v>34.222000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49">
         <f t="shared" si="7"/>
         <v>300000</v>
@@ -15628,7 +15015,7 @@
         <v>51.125999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50">
         <f t="shared" si="7"/>
         <v>400000</v>
@@ -15637,7 +15024,7 @@
         <v>70.994</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51">
         <f t="shared" si="7"/>
         <v>500000</v>
@@ -15646,7 +15033,7 @@
         <v>97.049000000000007</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52">
         <f t="shared" si="7"/>
         <v>600000</v>
@@ -15655,7 +15042,7 @@
         <v>119.749</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53">
         <f t="shared" si="7"/>
         <v>700000</v>
@@ -15664,7 +15051,7 @@
         <v>149.16800000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54">
         <f t="shared" si="7"/>
         <v>800000</v>
@@ -15673,7 +15060,7 @@
         <v>179.86099999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55">
         <f t="shared" si="7"/>
         <v>900000</v>
@@ -15682,7 +15069,7 @@
         <v>213.23400000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56">
         <f t="shared" si="7"/>
         <v>1000000</v>
@@ -15691,7 +15078,7 @@
         <v>253.916</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57">
         <f t="shared" si="7"/>
         <v>2000000</v>
@@ -15700,7 +15087,7 @@
         <v>599.56299999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58">
         <f t="shared" si="7"/>
         <v>3000000</v>
@@ -15709,7 +15096,7 @@
         <v>1031.5309999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59">
         <f t="shared" si="7"/>
         <v>4000000</v>
@@ -15718,7 +15105,7 @@
         <v>1447.729</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60">
         <f t="shared" si="7"/>
         <v>5000000</v>
@@ -15727,7 +15114,7 @@
         <v>1930.2729999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61">
         <f t="shared" si="7"/>
         <v>6000000</v>
@@ -15736,7 +15123,7 @@
         <v>2374.0430000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62">
         <f t="shared" si="7"/>
         <v>7000000</v>
@@ -15745,7 +15132,7 @@
         <v>3092.4459999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63">
         <f t="shared" si="7"/>
         <v>8000000</v>
@@ -15754,7 +15141,7 @@
         <v>3539.502</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64">
         <f t="shared" si="7"/>
         <v>9000000</v>
@@ -15763,7 +15150,7 @@
         <v>3985.5990000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65">
         <f t="shared" si="7"/>
         <v>10000000</v>
@@ -15772,7 +15159,7 @@
         <v>4496.2979999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66">
         <f t="shared" si="7"/>
         <v>20000000</v>
@@ -15781,7 +15168,7 @@
         <v>10833.733</v>
       </c>
     </row>
-    <row r="108" spans="22:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="22:22">
       <c r="V108" t="s">
         <v>14</v>
       </c>
